--- a/l10n_ec_chart/data/account.account.template.xlsx
+++ b/l10n_ec_chart/data/account.account.template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="256">
   <si>
     <t>id</t>
   </si>
@@ -60,12 +60,12 @@
     <t>DISPONIBLE</t>
   </si>
   <si>
+    <t>account.data_account_type_current_assets</t>
+  </si>
+  <si>
     <t>ACTIVOS FINANCIEROS A VALOR RAZONABLE CON CAMBIOS EN RESULTADOS</t>
   </si>
   <si>
-    <t>account.data_account_type_current_assets</t>
-  </si>
-  <si>
     <t>ACTIVOS FINANCIEROS DISPONIBLES PARA LA VENTA</t>
   </si>
   <si>
@@ -96,7 +96,7 @@
     <t>OTRAS CUENTAS POR COBRAR</t>
   </si>
   <si>
-    <t>(-) PROVISIÃ“N CUENTAS INCOBRABLES Y DETERIORO</t>
+    <t>(-) PROVISIÓN CUENTAS INCOBRABLES Y DETERIORO</t>
   </si>
   <si>
     <t>INVENTARIOS DE MATERIA PRIMA</t>
@@ -105,19 +105,19 @@
     <t>INVENTARIOS DE PRODUCTOS EN PROCESO</t>
   </si>
   <si>
-    <t>INVENTARIOS DE SUMINISTROS O MATERIALES A SER CONSUMIDOS EN EL PROCESO DE PRODUCCIÃ“N</t>
-  </si>
-  <si>
-    <t>INVENTARIOS DE SUMINISTROS O MATERIALES A SER CONSUMIDOS EN LA PRESTACIÃ“N DE SERVICIO</t>
-  </si>
-  <si>
-    <t>INVENTARIOS DE PRODUCTOS TERMINADOS Y MERCADERIA EN ALMACÃ‰N - PRODUCIDO POR LA COMPAÃ‘ÃA</t>
-  </si>
-  <si>
-    <t>INVENTARIOS DE PRODUCTOS TERMINADOS Y MERCADERIA EN ALMACÃ‰N - COMPRADO DE TERCEROS</t>
-  </si>
-  <si>
-    <t>MERCADERÃAS EN TRÃNSITO</t>
+    <t>INVENTARIOS DE SUMINISTROS O MATERIALES A SER CONSUMIDOS EN EL PROCESO DE PRODUCCIÓN</t>
+  </si>
+  <si>
+    <t>INVENTARIOS DE SUMINISTROS O MATERIALES A SER CONSUMIDOS EN LA PRESTACIÓN DE SERVICIO</t>
+  </si>
+  <si>
+    <t>INVENTARIOS DE PRODUCTOS TERMINADOS Y MERCADERIA EN ALMACÉN - PRODUCIDO POR LA COMPAÑÍA</t>
+  </si>
+  <si>
+    <t>INVENTARIOS DE PRODUCTOS TERMINADOS Y MERCADERIA EN ALMACÉN - COMPRADO DE TERCEROS</t>
+  </si>
+  <si>
+    <t>MERCADERÍAS EN TRÁNSITO</t>
   </si>
   <si>
     <t>OBRAS EN CONSTRUCCION</t>
@@ -126,7 +126,7 @@
     <t>OBRAS TERMINADAS</t>
   </si>
   <si>
-    <t>MATERIALES O BIENES PARA LA CONSTRUCCIÃ“N</t>
+    <t>MATERIALES O BIENES PARA LA CONSTRUCCIÓN</t>
   </si>
   <si>
     <t>INVENTARIOS REPUESTOS, HERRAMIENTAS Y ACCESORIOS</t>
@@ -135,7 +135,7 @@
     <t>OTROS INVENTARIOS</t>
   </si>
   <si>
-    <t>(-) PROVISIÃ“N POR VALOR NETO DE REALIZACIÃ“N Y OTRAS PÃ‰RDIDAS EN EL INVENTARIO</t>
+    <t>(-) PROVISIÓN POR VALOR NETO DE REALIZACIÓN Y OTRAS PÉRDIDAS EN EL INVENTARIO</t>
   </si>
   <si>
     <t>SEGUROS PAGADOS POR ANTICIPADO</t>
@@ -153,13 +153,13 @@
     <t>OTROS ANTICIPOS ENTREGADOS</t>
   </si>
   <si>
-    <t>CRÃ‰DITO TRIBUTARIO A FAVOR DE LA EMPRESA (IVA)</t>
+    <t>CRÉDITO TRIBUTARIO A FAVOR DE LA EMPRESA (IVA)</t>
   </si>
   <si>
     <t>account.data_account_type_non_current_assets</t>
   </si>
   <si>
-    <t>CRÃ‰DITO TRIBUTARIO A FAVOR DE LA EMPRESA ( I. R.)</t>
+    <t>CRÉDITO TRIBUTARIO A FAVOR DE LA EMPRESA ( I. R.)</t>
   </si>
   <si>
     <t>ANTICIPO DE IMPUESTO A LA RENTA</t>
@@ -198,10 +198,10 @@
     <t>NAVES, AERONAVES, BARCAZAS Y SIMILARES</t>
   </si>
   <si>
-    <t>EQUIPO DE COMPUTACIÃ“N</t>
-  </si>
-  <si>
-    <t>VEHÃCULOS, EQUIPOS DE TRANSPORTE Y EQUIPO CAMINERO MÃ“VIL</t>
+    <t>EQUIPO DE COMPUTACIÓN</t>
+  </si>
+  <si>
+    <t>VEHÍCULOS, EQUIPOS DE TRANSPORTE Y EQUIPO CAMINERO MÓVIL</t>
   </si>
   <si>
     <t>OTROS PROPIEDADES, PLANTA Y EQUIPO</t>
@@ -210,46 +210,46 @@
     <t>REPUESTOS Y HERRAMIENTAS</t>
   </si>
   <si>
-    <t>(-) DEPRECIACIÃ“N ACUMULADA PROPIEDADES, PLANTA Y EQUIPO</t>
+    <t>(-) DEPRECIACIÓN ACUMULADA PROPIEDADES, PLANTA Y EQUIPO</t>
   </si>
   <si>
     <t>(-) DETERIORO  ACUMULADO DE PROPIEDADES, PLANTA Y EQUIPO</t>
   </si>
   <si>
-    <t>ACTIVOS DE EXPLORACIÃ“N Y EXPLOTACIÃ“N</t>
-  </si>
-  <si>
-    <t>(-) AMORTIZACIÃ“N ACUMULADA DE ACTIVOS DE EXLORACIÃ“N Y EXPLOTACIÃ“N</t>
-  </si>
-  <si>
-    <t>(-) DETERIORO ACUMULADO DE ACTIVOS DE EXPLORACIÃ“N Y EXPLOTACIÃ“N</t>
-  </si>
-  <si>
-    <t>(-) DEPRECIACION ACUMULADA DE PROPIEDADES DE INVERSIÃ“N</t>
-  </si>
-  <si>
-    <t>(-) DETERIORO ACUMULADO DE PROPIEDADES DE INVERSIÃ“N</t>
+    <t>ACTIVOS DE EXPLORACIÓN Y EXPLOTACIÓN</t>
+  </si>
+  <si>
+    <t>(-) AMORTIZACIÓN ACUMULADA DE ACTIVOS DE EXLORACIÓN Y EXPLOTACIÓN</t>
+  </si>
+  <si>
+    <t>(-) DETERIORO ACUMULADO DE ACTIVOS DE EXPLORACIÓN Y EXPLOTACIÓN</t>
+  </si>
+  <si>
+    <t>(-) DEPRECIACION ACUMULADA DE PROPIEDADES DE INVERSIÓN</t>
+  </si>
+  <si>
+    <t>(-) DETERIORO ACUMULADO DE PROPIEDADES DE INVERSIÓN</t>
   </si>
   <si>
     <t>ANIMALES VIVOS EN CRECIMIENTO</t>
   </si>
   <si>
-    <t>ANIMALES VIVOS EN PRODUCCIÃ“N</t>
+    <t>ANIMALES VIVOS EN PRODUCCIÓN</t>
   </si>
   <si>
     <t>PLANTAS EN CRECIMIENTO</t>
   </si>
   <si>
-    <t>PLANTAS EN PRODUCCIÃ“N</t>
-  </si>
-  <si>
-    <t>(-) DEPRECIACIÃ“N ACUMULADA DE ACTIVOS BIOLÃ“GICOS</t>
-  </si>
-  <si>
-    <t>(-) DETERIORO ACUMULADO DE ACTIVOS BIOLÃ“GICOS</t>
-  </si>
-  <si>
-    <t>PLUSVALÃAS</t>
+    <t>PLANTAS EN PRODUCCIÓN</t>
+  </si>
+  <si>
+    <t>(-) DEPRECIACIÓN ACUMULADA DE ACTIVOS BIOLÓGICOS</t>
+  </si>
+  <si>
+    <t>(-) DETERIORO ACUMULADO DE ACTIVOS BIOLÓGICOS</t>
+  </si>
+  <si>
+    <t>PLUSVALÍAS</t>
   </si>
   <si>
     <t>MARCAS, PATENTES, DERECHOS DE LLAVE, CUOTAS PATRIMONIALES  Y OTROS SIMILARES</t>
@@ -258,7 +258,7 @@
     <t>ACTIVOS DE EXPLORACION Y EXPLOTACION</t>
   </si>
   <si>
-    <t>(-) AMORTIZACIÃ“N ACUMULADA DE ACTIVO INTANGIBLE</t>
+    <t>(-) AMORTIZACIÓN ACUMULADA DE ACTIVO INTANGIBLE</t>
   </si>
   <si>
     <t>(-) DETERIORO ACUMULADO DE ACTIVO INTANGIBLE</t>
@@ -270,13 +270,13 @@
     <t>ACTIVOS POR IMPUESTOS DIFERIDOS</t>
   </si>
   <si>
-    <t>(-) PROVISIÃ“N POR DETERIORO DE ACTIVOS FINANCIEROS MANTENIDOS HASTA EL VENCIMIENTO</t>
+    <t>(-) PROVISIÓN POR DETERIORO DE ACTIVOS FINANCIEROS MANTENIDOS HASTA EL VENCIMIENTO</t>
   </si>
   <si>
     <t>DOCUMENTOS Y CUENTAS POR COBRAR</t>
   </si>
   <si>
-    <t>(-) PROVISIÃ“N CUENTAS INCOBRABLES DE ACTIVOS FINANCIEROS NO CORRIENTES</t>
+    <t>(-) PROVISIÓN CUENTAS INCOBRABLES DE ACTIVOS FINANCIEROS NO CORRIENTES</t>
   </si>
   <si>
     <t>INVERSIONES SUBSIDIARIAS</t>
@@ -291,7 +291,7 @@
     <t>OTRAS INVERSIONES</t>
   </si>
   <si>
-    <t>(-) PROVISIÃ“N VALUACIÃ“N DE INVERSIONES</t>
+    <t>(-) PROVISIÓN VALUACIÓN DE INVERSIONES</t>
   </si>
   <si>
     <t>OTROS ACTIVOS NO CORRIENTES</t>
@@ -327,10 +327,10 @@
     <t>PROVISIONES DEL EXTERIOR</t>
   </si>
   <si>
-    <t>PORCIÃ“N CORRIENTE DE OBLIGACIONES EMITIDAS</t>
-  </si>
-  <si>
-    <t>OTRAS OBLIGACIONES CORRIENTES CON LA ADMINISTRACIÃ“N TRIBUTARIA</t>
+    <t>PORCIÓN CORRIENTE DE OBLIGACIONES EMITIDAS</t>
+  </si>
+  <si>
+    <t>OTRAS OBLIGACIONES CORRIENTES CON LA ADMINISTRACIÓN TRIBUTARIA</t>
   </si>
   <si>
     <t>IMPUESTO A LA RENTA POR PAGAR DEL EJERCICIO</t>
@@ -342,13 +342,13 @@
     <t>OTRAS OBLIGACIONES CORRIENTES POR BENEFICIOS DE LEY A EMPLEADOS</t>
   </si>
   <si>
-    <t>PARTICIPACIÃ“N TRABAJADORES POR PAGAR DEL EJERCICIO</t>
+    <t>PARTICIPACIÓN TRABAJADORES POR PAGAR DEL EJERCICIO</t>
   </si>
   <si>
     <t>DIVIDENDOS POR PAGAR</t>
   </si>
   <si>
-    <t>CUENTAS POR PAGAR DIVERSAS â€“ RELACIONADAS</t>
+    <t>CUENTAS POR PAGAR DIVERSAS – RELACIONADAS</t>
   </si>
   <si>
     <t>OTROS PASIVOS FINANCIEROS</t>
@@ -360,7 +360,7 @@
     <t>PASIVOS DIRECTAMENTE ASOCIADOS CON LOS ACTIVOS NO CORRIENTES Y OPERACIONES DISCONTINUADAS</t>
   </si>
   <si>
-    <t>JUBILACIÃ“N PATRONAL</t>
+    <t>JUBILACIÓN PATRONAL</t>
   </si>
   <si>
     <t>OTROS BENEFICIOS A LARGO PLAZO PARA LOS EMPLEADOS</t>
@@ -405,10 +405,10 @@
     <t>account.data_account_type_equity</t>
   </si>
   <si>
-    <t>(-) CAPITAL SUSCRITO NO PAGADO, ACCIONES EN TESORERÃA</t>
-  </si>
-  <si>
-    <t>APORTES DE SOCIOS O ACCIONISTAS PARA FUTURA CAPITALIZACIÃ“N</t>
+    <t>(-) CAPITAL SUSCRITO NO PAGADO, ACCIONES EN TESORERÍA</t>
+  </si>
+  <si>
+    <t>APORTES DE SOCIOS O ACCIONISTAS PARA FUTURA CAPITALIZACIÓN</t>
   </si>
   <si>
     <t>PRIMA POR EMISION PRIMARIA DE ACCIONES</t>
@@ -423,7 +423,7 @@
     <t>SUPERAVIT DE ACTIVOS FINANCIEROS DISPONIBLES PARA LA VENTA</t>
   </si>
   <si>
-    <t>SUPERAVIT POR REVALUACIÃ“N DE PROPIEDADES, PLANTA Y EQUIPO</t>
+    <t>SUPERAVIT POR REVALUACIÓN DE PROPIEDADES, PLANTA Y EQUIPO</t>
   </si>
   <si>
     <t>SUPERAVIT POR REVALUACION DE ACTIVOS INTANGIBLES</t>
@@ -435,10 +435,10 @@
     <t>GANACIAS ACUMULADAS</t>
   </si>
   <si>
-    <t>(-) PÃ‰RDIDAS ACUMULADAS</t>
-  </si>
-  <si>
-    <t>RESULTADOS ACUMULADOS PROVENIENTES DE LA ADOPCIÃ“N POR PRIMERA VEZ DE LAS NIIF</t>
+    <t>(-) PÉRDIDAS ACUMULADAS</t>
+  </si>
+  <si>
+    <t>RESULTADOS ACUMULADOS PROVENIENTES DE LA ADOPCIÓN POR PRIMERA VEZ DE LAS NIIF</t>
   </si>
   <si>
     <t>RESERVA DE CAPITAL</t>
@@ -447,19 +447,19 @@
     <t>RESERVA POR DONACIONES</t>
   </si>
   <si>
-    <t>RESERVA POR VALUACIÃ“N</t>
-  </si>
-  <si>
-    <t>SUPERÃVIT POR REVALUACIÃ“N DE INVERSIONES</t>
+    <t>RESERVA POR VALUACIÓN</t>
+  </si>
+  <si>
+    <t>SUPERÁVIT POR REVALUACIÓN DE INVERSIONES</t>
   </si>
   <si>
     <t>GANANCIA NETA DEL PERIODO</t>
   </si>
   <si>
-    <t>(-) PÃ‰RDIDA NETA DEL PERIODO</t>
-  </si>
-  <si>
-    <t>PARTICIPACIÃ“N NO CONTROLADORA</t>
+    <t>(-) PÉRDIDA NETA DEL PERIODO</t>
+  </si>
+  <si>
+    <t>PARTICIPACIÓN NO CONTROLADORA</t>
   </si>
   <si>
     <t>VENTA DE BIENES</t>
@@ -468,19 +468,19 @@
     <t>account.data_account_type_revenue</t>
   </si>
   <si>
-    <t>PRESTACIÃ“N DE SERVICIOS</t>
-  </si>
-  <si>
-    <t>CONTRATOS DE CONSTRUCCIÃ“N</t>
+    <t>PRESTACIÓN DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>CONTRATOS DE CONSTRUCCIÓN</t>
   </si>
   <si>
     <t>SUBVENCIONES DEL GOBIERNO</t>
   </si>
   <si>
-    <t>REGALÃAS</t>
-  </si>
-  <si>
-    <t>INTERESES GENERADOS POR VENTAS A CRÃ‰DITO</t>
+    <t>REGALÍAS</t>
+  </si>
+  <si>
+    <t>INTERESES GENERADOS POR VENTAS A CRÉDITO</t>
   </si>
   <si>
     <t>OTROS INTERESES GENERADOS</t>
@@ -489,7 +489,7 @@
     <t>DIVIDENDOS</t>
   </si>
   <si>
-    <t>GANANCIA POR MEDICIÃ“N A VALOR RAZONABLE DE ACTIVOS BIOLÃ“GICOS</t>
+    <t>GANANCIA POR MEDICIÓN A VALOR RAZONABLE DE ACTIVOS BIOLÓGICOS</t>
   </si>
   <si>
     <t>OTROS INGRESOS DE ACTIVIDADES ORDINARIAS</t>
@@ -501,7 +501,7 @@
     <t>(-) DEVOLUCIONES EN VENTAS</t>
   </si>
   <si>
-    <t>(-) BONIFICACIÃ“N EN PRODUCTO</t>
+    <t>(-) BONIFICACIÓN EN PRODUCTO</t>
   </si>
   <si>
     <t>(-) OTRAS REBAJAS COMERCIALES</t>
@@ -516,25 +516,25 @@
     <t>GANANCIA EN INVERSIONES EN ASOCIADAS / SUBSIDIARIAS Y OTRAS</t>
   </si>
   <si>
-    <t>VALUACIÃ“N DE INSTRUMENTOS FINANCIEROS A VALOR RAZONABLE CON CAMBIO EN RESULTADOS</t>
+    <t>VALUACIÓN DE INSTRUMENTOS FINANCIEROS A VALOR RAZONABLE CON CAMBIO EN RESULTADOS</t>
   </si>
   <si>
     <t>OTRAS RENTAS</t>
   </si>
   <si>
-    <t>(+) INVENTARIO INICIAL DE BIENES NO PRODUCIDOS POR LA COMPAÃ‘ÃA</t>
+    <t>(+) INVENTARIO INICIAL DE BIENES NO PRODUCIDOS POR LA COMPAÑÍA</t>
   </si>
   <si>
     <t>account.data_account_type_direct_costs</t>
   </si>
   <si>
-    <t>(+) COMPRAS NETAS LOCALES DE BIENES NO PRODUCIDOS POR LA COMPAÃ‘ÃA</t>
-  </si>
-  <si>
-    <t>(+) IMPORTACIONES DE BIENES NO PRODUCIDOS POR LA COMPAÃ‘ÃA</t>
-  </si>
-  <si>
-    <t>(-) INVENTARIO FINAL DE BIENES NO PRODUCIDOS POR LA COMPAÃ‘ÃA</t>
+    <t>(+) COMPRAS NETAS LOCALES DE BIENES NO PRODUCIDOS POR LA COMPAÑÍA</t>
+  </si>
+  <si>
+    <t>(+) IMPORTACIONES DE BIENES NO PRODUCIDOS POR LA COMPAÑÍA</t>
+  </si>
+  <si>
+    <t>(-) INVENTARIO FINAL DE BIENES NO PRODUCIDOS POR LA COMPAÑÍA</t>
   </si>
   <si>
     <t>(+) INVENTARIO INICIAL DE MATERIA PRIMA</t>
@@ -567,19 +567,19 @@
     <t>GASTO PLANES DE BENEFICIOS A EMPLEADOS</t>
   </si>
   <si>
-    <t>DEPRECIACIÃ“N PROPIEDADES, PLANTA Y EQUIPO</t>
-  </si>
-  <si>
-    <t>DETERIORO O PÃ‰RDIDAS DE ACTIVOS BIOLÃ“GICOS</t>
+    <t>DEPRECIACIÓN PROPIEDADES, PLANTA Y EQUIPO</t>
+  </si>
+  <si>
+    <t>DETERIORO O PÉRDIDAS DE ACTIVOS BIOLÓGICOS</t>
   </si>
   <si>
     <t>DETERIORO DE PROPIEDAD, PLANTA Y EQUIPO</t>
   </si>
   <si>
-    <t>EFECTO VALOR NETO DE REALIZACIÃ“N DE INVENTARIOS</t>
-  </si>
-  <si>
-    <t>GASTO POR GARANTÃAS EN VENTA DE PRODUCTOS O SERVICIOS</t>
+    <t>EFECTO VALOR NETO DE REALIZACIÓN DE INVENTARIOS</t>
+  </si>
+  <si>
+    <t>GASTO POR GARANTÍAS EN VENTA DE PRODUCTOS O SERVICIOS</t>
   </si>
   <si>
     <t>MANTENIMIENTO Y REPARACIONES</t>
@@ -588,10 +588,10 @@
     <t>SUMINISTROS MATERIALES Y REPUESTOS</t>
   </si>
   <si>
-    <t>OTROS COSTOS DE PRODUCCIÃ“N</t>
-  </si>
-  <si>
-    <t>SUELDOS, SALARIOS Y DEMÃS REMUNERACIONES</t>
+    <t>OTROS COSTOS DE PRODUCCIÓN</t>
+  </si>
+  <si>
+    <t>SUELDOS, SALARIOS Y DEMÁS REMUNERACIONES</t>
   </si>
   <si>
     <t>account.data_account_type_expenses</t>
@@ -606,7 +606,7 @@
     <t>HONORARIOS, COMISIONES Y DIETAS A PERSONAS NATURALES</t>
   </si>
   <si>
-    <t>REMUNERACIONES A OTROS TRABAJADORES AUTÃ“NOMOS</t>
+    <t>REMUNERACIONES A OTROS TRABAJADORES AUTÓNOMOS</t>
   </si>
   <si>
     <t>HONORARIOS A EXTRANJEROS POR SERVICIOS OCASIONALES</t>
@@ -618,7 +618,7 @@
     <t>COMISIONES</t>
   </si>
   <si>
-    <t>PROMOCIÃ“N Y PUBLICIDAD</t>
+    <t>PROMOCIÓN Y PUBLICIDAD</t>
   </si>
   <si>
     <t>COMBUSTIBLES</t>
@@ -633,13 +633,13 @@
     <t>TRANSPORTE</t>
   </si>
   <si>
-    <t>GASTOS DE GESTIÃ“N (agasajos a accionistas, trabajadores y clientes)</t>
+    <t>GASTOS DE GESTIÓN (agasajos a accionistas, trabajadores y clientes)</t>
   </si>
   <si>
     <t>GASTOS DE VIAJE</t>
   </si>
   <si>
-    <t>AGUA, ENERGÃA, LUZ Y TELECOMUNICACIONES</t>
+    <t>AGUA, ENERGÍA, LUZ Y TELECOMUNICACIONES</t>
   </si>
   <si>
     <t>NOTARIOS Y REGISTRADORES DE LA PROPIEDAD O MERCANTILES</t>
@@ -651,7 +651,7 @@
     <t>account.data_account_type_depreciation</t>
   </si>
   <si>
-    <t>PROPIEDADES DE INVERSIÃ“N</t>
+    <t>PROPIEDADES DE INVERSIÓN</t>
   </si>
   <si>
     <t>INTANGIBLES</t>
@@ -666,13 +666,13 @@
     <t>MATERIALES</t>
   </si>
   <si>
-    <t>COSTOS DE PRODUCCIÃ“N</t>
-  </si>
-  <si>
-    <t>GASTO POR REESTRUCTURACIÃ“N</t>
-  </si>
-  <si>
-    <t>VALOR NETO DE REALIZACIÃ“N DE INVENTARIOS</t>
+    <t>COSTOS DE PRODUCCIÓN</t>
+  </si>
+  <si>
+    <t>GASTO POR REESTRUCTURACIÓN</t>
+  </si>
+  <si>
+    <t>VALOR NETO DE REALIZACIÓN DE INVENTARIOS</t>
   </si>
   <si>
     <t>OTROS GASTOS</t>
@@ -684,7 +684,7 @@
     <t>DEPRECIACIONES PROPIEDADES, PLANTA Y EQUIPO</t>
   </si>
   <si>
-    <t>DEPRECIACIONES PROPIEDADES DE INVERSIÃ“N</t>
+    <t>DEPRECIACIONES PROPIEDADES DE INVERSIÓN</t>
   </si>
   <si>
     <t>AMORTIZACIONES INTANGIBLES</t>
@@ -732,20 +732,68 @@
     <t>OTROS</t>
   </si>
   <si>
-    <t>CAJA CHICA GENERAL</t>
-  </si>
-  <si>
-    <t>CHEQUES POR DEPOSITAR</t>
-  </si>
-  <si>
-    <t>FONDO POR DEPOSITAR</t>
+    <t>ACTIVOS FINANCIEROS</t>
+  </si>
+  <si>
+    <t>CAJA CHICA 1</t>
+  </si>
+  <si>
+    <t>CAJA CHICA 2</t>
+  </si>
+  <si>
+    <t>EFECTOS DE COBRO INMEDIATO (CHEQUES)</t>
+  </si>
+  <si>
+    <t>EFECTOS DE COBRO INMEDIATO (TARJETAS DE CRÉDITO)</t>
+  </si>
+  <si>
+    <t>CAJA GENERAL / FONDO POR DEPOSITAR</t>
+  </si>
+  <si>
+    <t>CAJA CHICA</t>
+  </si>
+  <si>
+    <t>BANCOS</t>
+  </si>
+  <si>
+    <t>BANCO DE LOJA CTA CTE 2900652118</t>
+  </si>
+  <si>
+    <t>BANCO PICHINCHA CTA AHO 3460266600</t>
+  </si>
+  <si>
+    <t>BANCO GUAYAQUIL CTA CTE 9928944</t>
+  </si>
+  <si>
+    <t>BANCO BOLIVARIANO CTA AHO</t>
+  </si>
+  <si>
+    <t>BANCO SOLIDARIO CTA AHO</t>
+  </si>
+  <si>
+    <t>COOPMEGO CTA AHO</t>
+  </si>
+  <si>
+    <t>BANCO DE LOJA CTA AHO PABLO JARAMILLO</t>
+  </si>
+  <si>
+    <t>BANCO DE LOJA CRECEDIARIO</t>
+  </si>
+  <si>
+    <t>FONDO ROTATIVO</t>
+  </si>
+  <si>
+    <t>INVERSIONES TEMPORALES</t>
+  </si>
+  <si>
+    <t>COOPMEGO POLIZA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,13 +928,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,6 +1115,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1235,10 +1284,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1560,117 +1607,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="4" max="4" width="78.5703125" customWidth="1"/>
-    <col min="5" max="5" width="43.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="72" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
         <v>101</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>10101</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
         <v>10101</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>1010101</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
         <v>1010101</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1685,50 +1733,50 @@
         <v>101010101</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>242</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>101010102</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
         <v>101010102</v>
       </c>
-      <c r="D7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>101010103</v>
+        <v>10101010201</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>101010103</v>
+        <v>10101010201</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>238</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1736,19 +1784,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1010201</v>
+        <v>10101010202</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>1010201</v>
+        <v>10101010202</v>
       </c>
       <c r="D9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1756,19 +1804,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1010202</v>
+        <v>101010103</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>1010202</v>
+        <v>101010103</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -1776,59 +1824,59 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1010203</v>
+        <v>101010104</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>1010203</v>
+        <v>101010104</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1010204</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>1010204</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="A12" s="2">
+        <v>101010105</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>101010105</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>101020501</v>
+        <v>10101010501</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>101020501</v>
+        <v>10101010501</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -1836,19 +1884,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>101020502</v>
+        <v>10101010502</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>101020502</v>
+        <v>10101010502</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -1856,19 +1904,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1010206</v>
+        <v>10101010503</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>1010206</v>
+        <v>10101010503</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -1876,19 +1924,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1010207</v>
+        <v>10101010504</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>1010207</v>
+        <v>10101010504</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1896,19 +1944,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1010208</v>
+        <v>10101010505</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>1010208</v>
+        <v>10101010505</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1916,19 +1964,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1010209</v>
+        <v>10101010506</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18">
-        <v>1010209</v>
+        <v>10101010506</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1936,19 +1984,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1010301</v>
+        <v>10101010507</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19">
-        <v>1010301</v>
+        <v>10101010507</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1956,19 +2004,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1010302</v>
+        <v>10101010508</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>1010302</v>
+        <v>10101010508</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1976,99 +2024,99 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1010303</v>
+        <v>101010106</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21">
-        <v>1010303</v>
+        <v>101010106</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1010304</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>1010304</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="A22" s="2">
+        <v>101010107</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>101010107</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1010305</v>
+        <v>10101010701</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23">
-        <v>1010305</v>
+        <v>10101010701</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1010306</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>1010306</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="A24" s="2">
+        <v>10102</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10102</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1010307</v>
+        <v>1010201</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25">
-        <v>1010307</v>
+        <v>1010201</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -2076,19 +2124,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1010308</v>
+        <v>1010202</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26">
-        <v>1010308</v>
+        <v>1010202</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -2096,19 +2144,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1010309</v>
+        <v>1010203</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>1010309</v>
+        <v>1010203</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -2116,19 +2164,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1010310</v>
+        <v>1010204</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>1010310</v>
+        <v>1010204</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -2136,19 +2184,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1010311</v>
+        <v>101020501</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>1010311</v>
+        <v>101020501</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -2156,19 +2204,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1010312</v>
+        <v>101020502</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C30">
-        <v>1010312</v>
+        <v>101020502</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -2176,19 +2224,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1010313</v>
+        <v>1010206</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C31">
-        <v>1010313</v>
+        <v>1010206</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -2196,19 +2244,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1010401</v>
+        <v>1010207</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
       </c>
       <c r="C32">
-        <v>1010401</v>
+        <v>1010207</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -2216,19 +2264,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1010402</v>
+        <v>1010208</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
       </c>
       <c r="C33">
-        <v>1010402</v>
+        <v>1010208</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -2236,19 +2284,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1010403</v>
+        <v>1010209</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>1010403</v>
+        <v>1010209</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -2256,19 +2304,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1010404</v>
+        <v>1010301</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>1010404</v>
+        <v>1010301</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -2276,19 +2324,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1010501</v>
+        <v>1010302</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>1010501</v>
+        <v>1010302</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -2296,19 +2344,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1010502</v>
+        <v>1010303</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37">
-        <v>1010502</v>
+        <v>1010303</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -2316,19 +2364,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1010503</v>
+        <v>1010304</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>1010503</v>
+        <v>1010304</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -2336,19 +2384,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>10106</v>
+        <v>1010305</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>10106</v>
+        <v>1010305</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -2356,19 +2404,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>10107</v>
+        <v>1010306</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>10107</v>
+        <v>1010306</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -2376,19 +2424,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>10108</v>
+        <v>1010307</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>10108</v>
+        <v>1010307</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -2396,19 +2444,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1020101</v>
+        <v>1010308</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>1020101</v>
+        <v>1010308</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -2416,19 +2464,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1020102</v>
+        <v>1010309</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>1020102</v>
+        <v>1010309</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -2436,19 +2484,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1020103</v>
+        <v>1010310</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>1020103</v>
+        <v>1010310</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -2456,19 +2504,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1020104</v>
+        <v>1010311</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>1020104</v>
+        <v>1010311</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -2476,19 +2524,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1020105</v>
+        <v>1010312</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>1020105</v>
+        <v>1010312</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -2496,19 +2544,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1020106</v>
+        <v>1010313</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>1020106</v>
+        <v>1010313</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -2516,19 +2564,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1020107</v>
+        <v>1010401</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C48">
-        <v>1020107</v>
+        <v>1010401</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -2536,19 +2584,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1020108</v>
+        <v>1010402</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C49">
-        <v>1020108</v>
+        <v>1010402</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -2556,19 +2604,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1020109</v>
+        <v>1010403</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>1020109</v>
+        <v>1010403</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -2576,19 +2624,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1020110</v>
+        <v>1010404</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C51">
-        <v>1020110</v>
+        <v>1010404</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -2596,19 +2644,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1020111</v>
+        <v>1010501</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52">
-        <v>1020111</v>
+        <v>1010501</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -2616,19 +2664,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1020112</v>
+        <v>1010502</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>1020112</v>
+        <v>1010502</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -2636,19 +2684,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1020113</v>
+        <v>1010503</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>1020113</v>
+        <v>1010503</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -2656,19 +2704,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>102011401</v>
+        <v>10106</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>102011401</v>
+        <v>10106</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -2676,16 +2724,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>102011402</v>
+        <v>10107</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>102011402</v>
+        <v>10107</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E56" t="s">
         <v>50</v>
@@ -2696,19 +2744,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>102011403</v>
+        <v>10108</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>102011403</v>
+        <v>10108</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -2716,13 +2764,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1020201</v>
+        <v>1020101</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>1020201</v>
+        <v>1020101</v>
       </c>
       <c r="D58" t="s">
         <v>52</v>
@@ -2736,13 +2784,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1020202</v>
+        <v>1020102</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59">
-        <v>1020202</v>
+        <v>1020102</v>
       </c>
       <c r="D59" t="s">
         <v>53</v>
@@ -2756,16 +2804,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1020203</v>
+        <v>1020103</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>1020203</v>
+        <v>1020103</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E60" t="s">
         <v>50</v>
@@ -2776,16 +2824,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1020204</v>
+        <v>1020104</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>1020204</v>
+        <v>1020104</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E61" t="s">
         <v>50</v>
@@ -2796,16 +2844,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1020301</v>
+        <v>1020105</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>1020301</v>
+        <v>1020105</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E62" t="s">
         <v>50</v>
@@ -2816,16 +2864,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1020302</v>
+        <v>1020106</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>1020302</v>
+        <v>1020106</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E63" t="s">
         <v>50</v>
@@ -2836,16 +2884,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1020303</v>
+        <v>1020107</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>1020303</v>
+        <v>1020107</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E64" t="s">
         <v>50</v>
@@ -2856,16 +2904,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1020304</v>
+        <v>1020108</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>1020304</v>
+        <v>1020108</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E65" t="s">
         <v>50</v>
@@ -2876,16 +2924,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1020305</v>
+        <v>1020109</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>1020305</v>
+        <v>1020109</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E66" t="s">
         <v>50</v>
@@ -2896,16 +2944,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1020306</v>
+        <v>1020110</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>1020306</v>
+        <v>1020110</v>
       </c>
       <c r="D67" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E67" t="s">
         <v>50</v>
@@ -2916,16 +2964,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1020401</v>
+        <v>1020111</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>1020401</v>
+        <v>1020111</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E68" t="s">
         <v>50</v>
@@ -2936,16 +2984,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1020402</v>
+        <v>1020112</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69">
-        <v>1020402</v>
+        <v>1020112</v>
       </c>
       <c r="D69" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E69" t="s">
         <v>50</v>
@@ -2956,16 +3004,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1020403</v>
+        <v>1020113</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>1020403</v>
+        <v>1020113</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E70" t="s">
         <v>50</v>
@@ -2976,16 +3024,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1020404</v>
+        <v>102011401</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71">
-        <v>1020404</v>
+        <v>102011401</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E71" t="s">
         <v>50</v>
@@ -2996,16 +3044,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1020405</v>
+        <v>102011402</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
       <c r="C72">
-        <v>1020405</v>
+        <v>102011402</v>
       </c>
       <c r="D72" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E72" t="s">
         <v>50</v>
@@ -3016,16 +3064,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1020406</v>
+        <v>102011403</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>1020406</v>
+        <v>102011403</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E73" t="s">
         <v>50</v>
@@ -3036,16 +3084,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>10205</v>
+        <v>1020201</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>10205</v>
+        <v>1020201</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E74" t="s">
         <v>50</v>
@@ -3056,16 +3104,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1020601</v>
+        <v>1020202</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75">
-        <v>1020601</v>
+        <v>1020202</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E75" t="s">
         <v>50</v>
@@ -3076,16 +3124,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1020602</v>
+        <v>1020203</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
       <c r="C76">
-        <v>1020602</v>
+        <v>1020203</v>
       </c>
       <c r="D76" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E76" t="s">
         <v>50</v>
@@ -3096,16 +3144,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1020603</v>
+        <v>1020204</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
       </c>
       <c r="C77">
-        <v>1020603</v>
+        <v>1020204</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E77" t="s">
         <v>50</v>
@@ -3116,16 +3164,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1020604</v>
+        <v>1020301</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78">
-        <v>1020604</v>
+        <v>1020301</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E78" t="s">
         <v>50</v>
@@ -3136,16 +3184,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1020701</v>
+        <v>1020302</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>1020701</v>
+        <v>1020302</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E79" t="s">
         <v>50</v>
@@ -3156,16 +3204,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1020702</v>
+        <v>1020303</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80">
-        <v>1020702</v>
+        <v>1020303</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E80" t="s">
         <v>50</v>
@@ -3176,16 +3224,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1020703</v>
+        <v>1020304</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81">
-        <v>1020703</v>
+        <v>1020304</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E81" t="s">
         <v>50</v>
@@ -3196,16 +3244,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1020704</v>
+        <v>1020305</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>1020704</v>
+        <v>1020305</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E82" t="s">
         <v>50</v>
@@ -3216,16 +3264,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1020705</v>
+        <v>1020306</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>1020705</v>
+        <v>1020306</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E83" t="s">
         <v>50</v>
@@ -3236,16 +3284,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1020706</v>
+        <v>1020401</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>1020706</v>
+        <v>1020401</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E84" t="s">
         <v>50</v>
@@ -3256,19 +3304,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>20101</v>
+        <v>1020402</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85">
-        <v>20101</v>
+        <v>1020402</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E85" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
@@ -3276,19 +3324,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>20102</v>
+        <v>1020403</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
       <c r="C86">
-        <v>20102</v>
+        <v>1020403</v>
       </c>
       <c r="D86" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E86" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F86" t="s">
         <v>9</v>
@@ -3296,19 +3344,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2010301</v>
+        <v>1020404</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>2010301</v>
+        <v>1020404</v>
       </c>
       <c r="D87" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E87" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="F87" t="s">
         <v>9</v>
@@ -3316,19 +3364,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2010302</v>
+        <v>1020405</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C88">
-        <v>2010302</v>
+        <v>1020405</v>
       </c>
       <c r="D88" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E88" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="F88" t="s">
         <v>9</v>
@@ -3336,19 +3384,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>2010401</v>
+        <v>1020406</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89">
-        <v>2010401</v>
+        <v>1020406</v>
       </c>
       <c r="D89" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E89" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F89" t="s">
         <v>9</v>
@@ -3356,19 +3404,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>2010402</v>
+        <v>10205</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90">
-        <v>2010402</v>
+        <v>10205</v>
       </c>
       <c r="D90" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E90" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
@@ -3376,19 +3424,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2010501</v>
+        <v>1020601</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91">
-        <v>2010501</v>
+        <v>1020601</v>
       </c>
       <c r="D91" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
@@ -3396,19 +3444,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2010502</v>
+        <v>1020602</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92">
-        <v>2010502</v>
+        <v>1020602</v>
       </c>
       <c r="D92" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E92" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -3416,19 +3464,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>20106</v>
+        <v>1020603</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93">
-        <v>20106</v>
+        <v>1020603</v>
       </c>
       <c r="D93" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E93" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
@@ -3436,19 +3484,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2010701</v>
+        <v>1020604</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94">
-        <v>2010701</v>
+        <v>1020604</v>
       </c>
       <c r="D94" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E94" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
@@ -3456,19 +3504,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>2010702</v>
+        <v>1020701</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95">
-        <v>2010702</v>
+        <v>1020701</v>
       </c>
       <c r="D95" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E95" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F95" t="s">
         <v>9</v>
@@ -3476,19 +3524,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>2010703</v>
+        <v>1020702</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96">
-        <v>2010703</v>
+        <v>1020702</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E96" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F96" t="s">
         <v>9</v>
@@ -3496,19 +3544,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2010704</v>
+        <v>1020703</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97">
-        <v>2010704</v>
+        <v>1020703</v>
       </c>
       <c r="D97" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E97" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
         <v>9</v>
@@ -3516,19 +3564,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2010705</v>
+        <v>1020704</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98">
-        <v>2010705</v>
+        <v>1020704</v>
       </c>
       <c r="D98" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E98" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F98" t="s">
         <v>9</v>
@@ -3536,19 +3584,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>2010706</v>
+        <v>1020705</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99">
-        <v>2010706</v>
+        <v>1020705</v>
       </c>
       <c r="D99" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E99" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
@@ -3556,19 +3604,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>20108</v>
+        <v>1020706</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100">
-        <v>20108</v>
+        <v>1020706</v>
       </c>
       <c r="D100" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E100" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F100" t="s">
         <v>9</v>
@@ -3576,16 +3624,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>20109</v>
+        <v>20101</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101">
-        <v>20109</v>
+        <v>20101</v>
       </c>
       <c r="D101" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E101" t="s">
         <v>93</v>
@@ -3596,16 +3644,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>20110</v>
+        <v>20102</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C102">
-        <v>20110</v>
+        <v>20102</v>
       </c>
       <c r="D102" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E102" t="s">
         <v>93</v>
@@ -3616,19 +3664,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>20111</v>
+        <v>2010301</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C103">
-        <v>20111</v>
+        <v>2010301</v>
       </c>
       <c r="D103" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E103" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F103" t="s">
         <v>9</v>
@@ -3636,19 +3684,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>2011201</v>
+        <v>2010302</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>2011201</v>
+        <v>2010302</v>
       </c>
       <c r="D104" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E104" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F104" t="s">
         <v>9</v>
@@ -3656,16 +3704,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>2011202</v>
+        <v>2010401</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105">
-        <v>2011202</v>
+        <v>2010401</v>
       </c>
       <c r="D105" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E105" t="s">
         <v>93</v>
@@ -3676,16 +3724,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>20113</v>
+        <v>2010402</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106">
-        <v>20113</v>
+        <v>2010402</v>
       </c>
       <c r="D106" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E106" t="s">
         <v>93</v>
@@ -3696,19 +3744,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>20201</v>
+        <v>2010501</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107">
-        <v>20201</v>
+        <v>2010501</v>
       </c>
       <c r="D107" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E107" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F107" t="s">
         <v>9</v>
@@ -3716,19 +3764,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>2020201</v>
+        <v>2010502</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108">
-        <v>2020201</v>
+        <v>2010502</v>
       </c>
       <c r="D108" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E108" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -3736,19 +3784,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>2020202</v>
+        <v>20106</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109">
-        <v>2020202</v>
+        <v>20106</v>
       </c>
       <c r="D109" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E109" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F109" t="s">
         <v>9</v>
@@ -3756,19 +3804,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>2020301</v>
+        <v>2010701</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110">
-        <v>2020301</v>
+        <v>2010701</v>
       </c>
       <c r="D110" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E110" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -3776,19 +3824,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>2020302</v>
+        <v>2010702</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111">
-        <v>2020302</v>
+        <v>2010702</v>
       </c>
       <c r="D111" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E111" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F111" t="s">
         <v>9</v>
@@ -3796,19 +3844,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>2020401</v>
+        <v>2010703</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112">
-        <v>2020401</v>
+        <v>2010703</v>
       </c>
       <c r="D112" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E112" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F112" t="s">
         <v>9</v>
@@ -3816,19 +3864,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>2020402</v>
+        <v>2010704</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113">
-        <v>2020402</v>
+        <v>2010704</v>
       </c>
       <c r="D113" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E113" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F113" t="s">
         <v>9</v>
@@ -3836,19 +3884,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>20205</v>
+        <v>2010705</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114">
-        <v>20205</v>
+        <v>2010705</v>
       </c>
       <c r="D114" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E114" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F114" t="s">
         <v>9</v>
@@ -3856,19 +3904,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>20206</v>
+        <v>2010706</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C115">
-        <v>20206</v>
+        <v>2010706</v>
       </c>
       <c r="D115" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E115" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F115" t="s">
         <v>9</v>
@@ -3876,19 +3924,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>2020701</v>
+        <v>20108</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116">
-        <v>2020701</v>
+        <v>20108</v>
       </c>
       <c r="D116" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E116" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F116" t="s">
         <v>9</v>
@@ -3896,19 +3944,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>2020702</v>
+        <v>20109</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
       <c r="C117">
-        <v>2020702</v>
+        <v>20109</v>
       </c>
       <c r="D117" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E117" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F117" t="s">
         <v>9</v>
@@ -3916,19 +3964,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>20208</v>
+        <v>20110</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C118">
-        <v>20208</v>
+        <v>20110</v>
       </c>
       <c r="D118" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E118" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F118" t="s">
         <v>9</v>
@@ -3936,19 +3984,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>2020901</v>
+        <v>20111</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
       </c>
       <c r="C119">
-        <v>2020901</v>
+        <v>20111</v>
       </c>
       <c r="D119" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E119" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F119" t="s">
         <v>9</v>
@@ -3956,19 +4004,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2020902</v>
+        <v>2011201</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
       </c>
       <c r="C120">
-        <v>2020902</v>
+        <v>2011201</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E120" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F120" t="s">
         <v>9</v>
@@ -3976,19 +4024,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>20210</v>
+        <v>2011202</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
       <c r="C121">
-        <v>20210</v>
+        <v>2011202</v>
       </c>
       <c r="D121" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E121" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F121" t="s">
         <v>9</v>
@@ -3996,19 +4044,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>30101</v>
+        <v>20113</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
       </c>
       <c r="C122">
-        <v>30101</v>
+        <v>20113</v>
       </c>
       <c r="D122" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E122" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="F122" t="s">
         <v>9</v>
@@ -4016,19 +4064,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>30102</v>
+        <v>20201</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
       </c>
       <c r="C123">
-        <v>30102</v>
+        <v>20201</v>
       </c>
       <c r="D123" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E123" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F123" t="s">
         <v>9</v>
@@ -4036,19 +4084,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>302</v>
+        <v>2020201</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124">
-        <v>302</v>
+        <v>2020201</v>
       </c>
       <c r="D124" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E124" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F124" t="s">
         <v>9</v>
@@ -4056,19 +4104,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>303</v>
+        <v>2020202</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125">
-        <v>303</v>
+        <v>2020202</v>
       </c>
       <c r="D125" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E125" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F125" t="s">
         <v>9</v>
@@ -4076,19 +4124,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>30401</v>
+        <v>2020301</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
       </c>
       <c r="C126">
-        <v>30401</v>
+        <v>2020301</v>
       </c>
       <c r="D126" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E126" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F126" t="s">
         <v>9</v>
@@ -4096,19 +4144,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>30402</v>
+        <v>2020302</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127">
-        <v>30402</v>
+        <v>2020302</v>
       </c>
       <c r="D127" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="E127" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F127" t="s">
         <v>9</v>
@@ -4116,19 +4164,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>30501</v>
+        <v>2020401</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128">
-        <v>30501</v>
+        <v>2020401</v>
       </c>
       <c r="D128" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E128" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F128" t="s">
         <v>9</v>
@@ -4136,19 +4184,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>30502</v>
+        <v>2020402</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129">
-        <v>30502</v>
+        <v>2020402</v>
       </c>
       <c r="D129" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E129" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -4156,19 +4204,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>30503</v>
+        <v>20205</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130">
-        <v>30503</v>
+        <v>20205</v>
       </c>
       <c r="D130" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E130" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F130" t="s">
         <v>9</v>
@@ -4176,19 +4224,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>30504</v>
+        <v>20206</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C131">
-        <v>30504</v>
+        <v>20206</v>
       </c>
       <c r="D131" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E131" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F131" t="s">
         <v>9</v>
@@ -4196,19 +4244,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>30601</v>
+        <v>2020701</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
       </c>
       <c r="C132">
-        <v>30601</v>
+        <v>2020701</v>
       </c>
       <c r="D132" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E132" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F132" t="s">
         <v>9</v>
@@ -4216,19 +4264,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>30602</v>
+        <v>2020702</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
       <c r="C133">
-        <v>30602</v>
+        <v>2020702</v>
       </c>
       <c r="D133" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E133" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F133" t="s">
         <v>9</v>
@@ -4236,19 +4284,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>30603</v>
+        <v>20208</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
       </c>
       <c r="C134">
-        <v>30603</v>
+        <v>20208</v>
       </c>
       <c r="D134" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E134" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F134" t="s">
         <v>9</v>
@@ -4256,19 +4304,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>30604</v>
+        <v>2020901</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
       <c r="C135">
-        <v>30604</v>
+        <v>2020901</v>
       </c>
       <c r="D135" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E135" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F135" t="s">
         <v>9</v>
@@ -4276,19 +4324,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>30605</v>
+        <v>2020902</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136">
-        <v>30605</v>
+        <v>2020902</v>
       </c>
       <c r="D136" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E136" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F136" t="s">
         <v>9</v>
@@ -4296,19 +4344,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>30606</v>
+        <v>20210</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="C137">
-        <v>30606</v>
+        <v>20210</v>
       </c>
       <c r="D137" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E137" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F137" t="s">
         <v>9</v>
@@ -4316,16 +4364,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>30607</v>
+        <v>30101</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
       </c>
       <c r="C138">
-        <v>30607</v>
+        <v>30101</v>
       </c>
       <c r="D138" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E138" t="s">
         <v>127</v>
@@ -4336,16 +4384,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>30701</v>
+        <v>30102</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
       </c>
       <c r="C139">
-        <v>30701</v>
+        <v>30102</v>
       </c>
       <c r="D139" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E139" t="s">
         <v>127</v>
@@ -4356,16 +4404,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>30702</v>
+        <v>302</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
       </c>
       <c r="C140">
-        <v>30702</v>
+        <v>302</v>
       </c>
       <c r="D140" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E140" t="s">
         <v>127</v>
@@ -4376,16 +4424,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>31</v>
+        <v>303</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
       </c>
       <c r="C141">
-        <v>31</v>
+        <v>303</v>
       </c>
       <c r="D141" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E141" t="s">
         <v>127</v>
@@ -4396,19 +4444,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>4101</v>
+        <v>30401</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
       </c>
       <c r="C142">
-        <v>4101</v>
+        <v>30401</v>
       </c>
       <c r="D142" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E142" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F142" t="s">
         <v>9</v>
@@ -4416,19 +4464,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>4102</v>
+        <v>30402</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
       </c>
       <c r="C143">
-        <v>4102</v>
+        <v>30402</v>
       </c>
       <c r="D143" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E143" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F143" t="s">
         <v>9</v>
@@ -4436,19 +4484,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>4103</v>
+        <v>30501</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
       </c>
       <c r="C144">
-        <v>4103</v>
+        <v>30501</v>
       </c>
       <c r="D144" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E144" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F144" t="s">
         <v>9</v>
@@ -4456,19 +4504,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>4104</v>
+        <v>30502</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
       </c>
       <c r="C145">
-        <v>4104</v>
+        <v>30502</v>
       </c>
       <c r="D145" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E145" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F145" t="s">
         <v>9</v>
@@ -4476,19 +4524,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>4105</v>
+        <v>30503</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
       </c>
       <c r="C146">
-        <v>4105</v>
+        <v>30503</v>
       </c>
       <c r="D146" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E146" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -4496,19 +4544,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>410601</v>
+        <v>30504</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
       <c r="C147">
-        <v>410601</v>
+        <v>30504</v>
       </c>
       <c r="D147" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E147" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F147" t="s">
         <v>9</v>
@@ -4516,19 +4564,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>410602</v>
+        <v>30601</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
       </c>
       <c r="C148">
-        <v>410602</v>
+        <v>30601</v>
       </c>
       <c r="D148" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E148" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F148" t="s">
         <v>9</v>
@@ -4536,19 +4584,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>4107</v>
+        <v>30602</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
       </c>
       <c r="C149">
-        <v>4107</v>
+        <v>30602</v>
       </c>
       <c r="D149" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E149" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F149" t="s">
         <v>9</v>
@@ -4556,19 +4604,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>4108</v>
+        <v>30603</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
       </c>
       <c r="C150">
-        <v>4108</v>
+        <v>30603</v>
       </c>
       <c r="D150" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E150" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F150" t="s">
         <v>9</v>
@@ -4576,19 +4624,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>4109</v>
+        <v>30604</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
       <c r="C151">
-        <v>4109</v>
+        <v>30604</v>
       </c>
       <c r="D151" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E151" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F151" t="s">
         <v>9</v>
@@ -4596,19 +4644,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>4110</v>
+        <v>30605</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
       </c>
       <c r="C152">
-        <v>4110</v>
+        <v>30605</v>
       </c>
       <c r="D152" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E152" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F152" t="s">
         <v>9</v>
@@ -4616,19 +4664,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>4111</v>
+        <v>30606</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
       </c>
       <c r="C153">
-        <v>4111</v>
+        <v>30606</v>
       </c>
       <c r="D153" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="E153" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F153" t="s">
         <v>9</v>
@@ -4636,19 +4684,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>4112</v>
+        <v>30607</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
       </c>
       <c r="C154">
-        <v>4112</v>
+        <v>30607</v>
       </c>
       <c r="D154" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E154" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F154" t="s">
         <v>9</v>
@@ -4656,19 +4704,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>4113</v>
+        <v>30701</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
       </c>
       <c r="C155">
-        <v>4113</v>
+        <v>30701</v>
       </c>
       <c r="D155" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E155" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F155" t="s">
         <v>9</v>
@@ -4676,19 +4724,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>4301</v>
+        <v>30702</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
       </c>
       <c r="C156">
-        <v>4301</v>
+        <v>30702</v>
       </c>
       <c r="D156" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E156" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="F156" t="s">
         <v>9</v>
@@ -4696,19 +4744,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>4302</v>
+        <v>31</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
       </c>
       <c r="C157">
-        <v>4302</v>
+        <v>31</v>
       </c>
       <c r="D157" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E157" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="F157" t="s">
         <v>9</v>
@@ -4716,19 +4764,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>4303</v>
+        <v>4101</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
       </c>
       <c r="C158">
-        <v>4303</v>
+        <v>4101</v>
       </c>
       <c r="D158" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E158" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F158" t="s">
         <v>9</v>
@@ -4736,19 +4784,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>4304</v>
+        <v>4102</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
       </c>
       <c r="C159">
-        <v>4304</v>
+        <v>4102</v>
       </c>
       <c r="D159" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E159" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F159" t="s">
         <v>9</v>
@@ -4756,19 +4804,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>4305</v>
+        <v>4103</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="C160">
-        <v>4305</v>
+        <v>4103</v>
       </c>
       <c r="D160" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E160" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F160" t="s">
         <v>9</v>
@@ -4776,19 +4824,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>510101</v>
+        <v>4104</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
       </c>
       <c r="C161">
-        <v>510101</v>
+        <v>4104</v>
       </c>
       <c r="D161" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E161" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F161" t="s">
         <v>9</v>
@@ -4796,19 +4844,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>510102</v>
+        <v>4105</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
       </c>
       <c r="C162">
-        <v>510102</v>
+        <v>4105</v>
       </c>
       <c r="D162" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E162" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F162" t="s">
         <v>9</v>
@@ -4816,19 +4864,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>510103</v>
+        <v>410601</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
       </c>
       <c r="C163">
-        <v>510103</v>
+        <v>410601</v>
       </c>
       <c r="D163" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E163" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F163" t="s">
         <v>9</v>
@@ -4836,19 +4884,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>510104</v>
+        <v>410602</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
       </c>
       <c r="C164">
-        <v>510104</v>
+        <v>410602</v>
       </c>
       <c r="D164" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E164" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F164" t="s">
         <v>9</v>
@@ -4856,19 +4904,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>510105</v>
+        <v>4107</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
       <c r="C165">
-        <v>510105</v>
+        <v>4107</v>
       </c>
       <c r="D165" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E165" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F165" t="s">
         <v>9</v>
@@ -4876,19 +4924,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>510106</v>
+        <v>4108</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
       </c>
       <c r="C166">
-        <v>510106</v>
+        <v>4108</v>
       </c>
       <c r="D166" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E166" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F166" t="s">
         <v>9</v>
@@ -4896,19 +4944,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>510107</v>
+        <v>4109</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
       </c>
       <c r="C167">
-        <v>510107</v>
+        <v>4109</v>
       </c>
       <c r="D167" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E167" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F167" t="s">
         <v>9</v>
@@ -4916,19 +4964,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>510108</v>
+        <v>4110</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
       </c>
       <c r="C168">
-        <v>510108</v>
+        <v>4110</v>
       </c>
       <c r="D168" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E168" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F168" t="s">
         <v>9</v>
@@ -4936,19 +4984,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>510109</v>
+        <v>4111</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
       </c>
       <c r="C169">
-        <v>510109</v>
+        <v>4111</v>
       </c>
       <c r="D169" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E169" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F169" t="s">
         <v>9</v>
@@ -4956,19 +5004,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>510110</v>
+        <v>4112</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
       </c>
       <c r="C170">
-        <v>510110</v>
+        <v>4112</v>
       </c>
       <c r="D170" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E170" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F170" t="s">
         <v>9</v>
@@ -4976,19 +5024,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>510111</v>
+        <v>4113</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
       </c>
       <c r="C171">
-        <v>510111</v>
+        <v>4113</v>
       </c>
       <c r="D171" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="E171" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F171" t="s">
         <v>9</v>
@@ -4996,19 +5044,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>510112</v>
+        <v>4301</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
       </c>
       <c r="C172">
-        <v>510112</v>
+        <v>4301</v>
       </c>
       <c r="D172" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="E172" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F172" t="s">
         <v>9</v>
@@ -5016,19 +5064,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>510201</v>
+        <v>4302</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
       </c>
       <c r="C173">
-        <v>510201</v>
+        <v>4302</v>
       </c>
       <c r="D173" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E173" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F173" t="s">
         <v>9</v>
@@ -5036,19 +5084,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>510202</v>
+        <v>4303</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
       </c>
       <c r="C174">
-        <v>510202</v>
+        <v>4303</v>
       </c>
       <c r="D174" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E174" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F174" t="s">
         <v>9</v>
@@ -5056,19 +5104,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>510301</v>
+        <v>4304</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
       </c>
       <c r="C175">
-        <v>510301</v>
+        <v>4304</v>
       </c>
       <c r="D175" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E175" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F175" t="s">
         <v>9</v>
@@ -5076,19 +5124,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>510302</v>
+        <v>4305</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
       </c>
       <c r="C176">
-        <v>510302</v>
+        <v>4305</v>
       </c>
       <c r="D176" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E176" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F176" t="s">
         <v>9</v>
@@ -5096,16 +5144,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>510401</v>
+        <v>510101</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
       </c>
       <c r="C177">
-        <v>510401</v>
+        <v>510101</v>
       </c>
       <c r="D177" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E177" t="s">
         <v>168</v>
@@ -5116,16 +5164,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>510402</v>
+        <v>510102</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
       </c>
       <c r="C178">
-        <v>510402</v>
+        <v>510102</v>
       </c>
       <c r="D178" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E178" t="s">
         <v>168</v>
@@ -5136,16 +5184,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>510403</v>
+        <v>510103</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
       </c>
       <c r="C179">
-        <v>510403</v>
+        <v>510103</v>
       </c>
       <c r="D179" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E179" t="s">
         <v>168</v>
@@ -5156,16 +5204,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>510404</v>
+        <v>510104</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
       </c>
       <c r="C180">
-        <v>510404</v>
+        <v>510104</v>
       </c>
       <c r="D180" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E180" t="s">
         <v>168</v>
@@ -5176,16 +5224,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>510405</v>
+        <v>510105</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
       </c>
       <c r="C181">
-        <v>510405</v>
+        <v>510105</v>
       </c>
       <c r="D181" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E181" t="s">
         <v>168</v>
@@ -5196,16 +5244,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>510406</v>
+        <v>510106</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
       </c>
       <c r="C182">
-        <v>510406</v>
+        <v>510106</v>
       </c>
       <c r="D182" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E182" t="s">
         <v>168</v>
@@ -5216,16 +5264,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>510407</v>
+        <v>510107</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
       </c>
       <c r="C183">
-        <v>510407</v>
+        <v>510107</v>
       </c>
       <c r="D183" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E183" t="s">
         <v>168</v>
@@ -5236,16 +5284,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>510408</v>
+        <v>510108</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
       </c>
       <c r="C184">
-        <v>510408</v>
+        <v>510108</v>
       </c>
       <c r="D184" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E184" t="s">
         <v>168</v>
@@ -5256,19 +5304,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>520101</v>
+        <v>510109</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
       </c>
       <c r="C185">
-        <v>520101</v>
+        <v>510109</v>
       </c>
       <c r="D185" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E185" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F185" t="s">
         <v>9</v>
@@ -5276,19 +5324,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>520102</v>
+        <v>510110</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
       </c>
       <c r="C186">
-        <v>520102</v>
+        <v>510110</v>
       </c>
       <c r="D186" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E186" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F186" t="s">
         <v>9</v>
@@ -5296,19 +5344,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>520103</v>
+        <v>510111</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
       </c>
       <c r="C187">
-        <v>520103</v>
+        <v>510111</v>
       </c>
       <c r="D187" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E187" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F187" t="s">
         <v>9</v>
@@ -5316,19 +5364,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>520104</v>
+        <v>510112</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
       </c>
       <c r="C188">
-        <v>520104</v>
+        <v>510112</v>
       </c>
       <c r="D188" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E188" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F188" t="s">
         <v>9</v>
@@ -5336,19 +5384,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>520105</v>
+        <v>510201</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
       </c>
       <c r="C189">
-        <v>520105</v>
+        <v>510201</v>
       </c>
       <c r="D189" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E189" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F189" t="s">
         <v>9</v>
@@ -5356,19 +5404,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>520106</v>
+        <v>510202</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
       </c>
       <c r="C190">
-        <v>520106</v>
+        <v>510202</v>
       </c>
       <c r="D190" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E190" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F190" t="s">
         <v>9</v>
@@ -5376,19 +5424,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>520107</v>
+        <v>510301</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
       </c>
       <c r="C191">
-        <v>520107</v>
+        <v>510301</v>
       </c>
       <c r="D191" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E191" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F191" t="s">
         <v>9</v>
@@ -5396,19 +5444,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>520108</v>
+        <v>510302</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
       </c>
       <c r="C192">
-        <v>520108</v>
+        <v>510302</v>
       </c>
       <c r="D192" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E192" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F192" t="s">
         <v>9</v>
@@ -5416,19 +5464,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>520109</v>
+        <v>510401</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
       </c>
       <c r="C193">
-        <v>520109</v>
+        <v>510401</v>
       </c>
       <c r="D193" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E193" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F193" t="s">
         <v>9</v>
@@ -5436,19 +5484,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>520110</v>
+        <v>510402</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
       </c>
       <c r="C194">
-        <v>520110</v>
+        <v>510402</v>
       </c>
       <c r="D194" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E194" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F194" t="s">
         <v>9</v>
@@ -5456,19 +5504,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>520111</v>
+        <v>510403</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
       </c>
       <c r="C195">
-        <v>520111</v>
+        <v>510403</v>
       </c>
       <c r="D195" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E195" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F195" t="s">
         <v>9</v>
@@ -5476,19 +5524,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>520112</v>
+        <v>510404</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
       </c>
       <c r="C196">
-        <v>520112</v>
+        <v>510404</v>
       </c>
       <c r="D196" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E196" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F196" t="s">
         <v>9</v>
@@ -5496,19 +5544,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>520113</v>
+        <v>510405</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
       </c>
       <c r="C197">
-        <v>520113</v>
+        <v>510405</v>
       </c>
       <c r="D197" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E197" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F197" t="s">
         <v>9</v>
@@ -5516,19 +5564,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>520114</v>
+        <v>510406</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
       </c>
       <c r="C198">
-        <v>520114</v>
+        <v>510406</v>
       </c>
       <c r="D198" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E198" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F198" t="s">
         <v>9</v>
@@ -5536,19 +5584,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>520115</v>
+        <v>510407</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
       </c>
       <c r="C199">
-        <v>520115</v>
+        <v>510407</v>
       </c>
       <c r="D199" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E199" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F199" t="s">
         <v>9</v>
@@ -5556,19 +5604,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>520116</v>
+        <v>510408</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
       </c>
       <c r="C200">
-        <v>520116</v>
+        <v>510408</v>
       </c>
       <c r="D200" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="E200" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F200" t="s">
         <v>9</v>
@@ -5576,16 +5624,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>520117</v>
+        <v>520101</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
       </c>
       <c r="C201">
-        <v>520117</v>
+        <v>520101</v>
       </c>
       <c r="D201" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E201" t="s">
         <v>191</v>
@@ -5596,16 +5644,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>520118</v>
+        <v>520102</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
       </c>
       <c r="C202">
-        <v>520118</v>
+        <v>520102</v>
       </c>
       <c r="D202" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E202" t="s">
         <v>191</v>
@@ -5616,16 +5664,16 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>520119</v>
+        <v>520103</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
       </c>
       <c r="C203">
-        <v>520119</v>
+        <v>520103</v>
       </c>
       <c r="D203" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E203" t="s">
         <v>191</v>
@@ -5636,19 +5684,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>52012101</v>
+        <v>520104</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
       </c>
       <c r="C204">
-        <v>52012101</v>
+        <v>520104</v>
       </c>
       <c r="D204" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="E204" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F204" t="s">
         <v>9</v>
@@ -5656,19 +5704,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>52012102</v>
+        <v>520105</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
       </c>
       <c r="C205">
-        <v>52012102</v>
+        <v>520105</v>
       </c>
       <c r="D205" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E205" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F205" t="s">
         <v>9</v>
@@ -5676,19 +5724,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>52012201</v>
+        <v>520106</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
       </c>
       <c r="C206">
-        <v>52012201</v>
+        <v>520106</v>
       </c>
       <c r="D206" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E206" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F206" t="s">
         <v>9</v>
@@ -5696,19 +5744,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>52012202</v>
+        <v>520107</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
       </c>
       <c r="C207">
-        <v>52012202</v>
+        <v>520107</v>
       </c>
       <c r="D207" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E207" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F207" t="s">
         <v>9</v>
@@ -5716,19 +5764,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>52012301</v>
+        <v>520108</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
       </c>
       <c r="C208">
-        <v>52012301</v>
+        <v>520108</v>
       </c>
       <c r="D208" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E208" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F208" t="s">
         <v>9</v>
@@ -5736,16 +5784,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>52012401</v>
+        <v>520109</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
       </c>
       <c r="C209">
-        <v>52012401</v>
+        <v>520109</v>
       </c>
       <c r="D209" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E209" t="s">
         <v>191</v>
@@ -5756,16 +5804,16 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>52012402</v>
+        <v>520110</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
       </c>
       <c r="C210">
-        <v>52012402</v>
+        <v>520110</v>
       </c>
       <c r="D210" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E210" t="s">
         <v>191</v>
@@ -5776,16 +5824,16 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>52012403</v>
+        <v>520111</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
       </c>
       <c r="C211">
-        <v>52012403</v>
+        <v>520111</v>
       </c>
       <c r="D211" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E211" t="s">
         <v>191</v>
@@ -5796,16 +5844,16 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>520125</v>
+        <v>520112</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
       </c>
       <c r="C212">
-        <v>520125</v>
+        <v>520112</v>
       </c>
       <c r="D212" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E212" t="s">
         <v>191</v>
@@ -5816,16 +5864,16 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>520126</v>
+        <v>520113</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
       </c>
       <c r="C213">
-        <v>520126</v>
+        <v>520113</v>
       </c>
       <c r="D213" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E213" t="s">
         <v>191</v>
@@ -5836,16 +5884,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>520128</v>
+        <v>520114</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
       </c>
       <c r="C214">
-        <v>520128</v>
+        <v>520114</v>
       </c>
       <c r="D214" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E214" t="s">
         <v>191</v>
@@ -5856,16 +5904,16 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>520201</v>
+        <v>520115</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
       </c>
       <c r="C215">
-        <v>520201</v>
+        <v>520115</v>
       </c>
       <c r="D215" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="E215" t="s">
         <v>191</v>
@@ -5876,16 +5924,16 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>520202</v>
+        <v>520116</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
       </c>
       <c r="C216">
-        <v>520202</v>
+        <v>520116</v>
       </c>
       <c r="D216" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E216" t="s">
         <v>191</v>
@@ -5896,16 +5944,16 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>520203</v>
+        <v>520117</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
       </c>
       <c r="C217">
-        <v>520203</v>
+        <v>520117</v>
       </c>
       <c r="D217" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E217" t="s">
         <v>191</v>
@@ -5916,16 +5964,16 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>520204</v>
+        <v>520118</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
       </c>
       <c r="C218">
-        <v>520204</v>
+        <v>520118</v>
       </c>
       <c r="D218" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="E218" t="s">
         <v>191</v>
@@ -5936,16 +5984,16 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>520205</v>
+        <v>520119</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
       </c>
       <c r="C219">
-        <v>520205</v>
+        <v>520119</v>
       </c>
       <c r="D219" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="E219" t="s">
         <v>191</v>
@@ -5956,19 +6004,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>520206</v>
+        <v>52012101</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
       </c>
       <c r="C220">
-        <v>520206</v>
+        <v>52012101</v>
       </c>
       <c r="D220" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E220" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F220" t="s">
         <v>9</v>
@@ -5976,19 +6024,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>520207</v>
+        <v>52012102</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
       </c>
       <c r="C221">
-        <v>520207</v>
+        <v>52012102</v>
       </c>
       <c r="D221" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E221" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F221" t="s">
         <v>9</v>
@@ -5996,19 +6044,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>520208</v>
+        <v>52012201</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
       </c>
       <c r="C222">
-        <v>520208</v>
+        <v>52012201</v>
       </c>
       <c r="D222" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="E222" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F222" t="s">
         <v>9</v>
@@ -6016,19 +6064,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>520209</v>
+        <v>52012202</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
       </c>
       <c r="C223">
-        <v>520209</v>
+        <v>52012202</v>
       </c>
       <c r="D223" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="E223" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F223" t="s">
         <v>9</v>
@@ -6036,19 +6084,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>520210</v>
+        <v>52012301</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
       </c>
       <c r="C224">
-        <v>520210</v>
+        <v>52012301</v>
       </c>
       <c r="D224" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E224" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F224" t="s">
         <v>9</v>
@@ -6056,16 +6104,16 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>520212</v>
+        <v>52012401</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
       </c>
       <c r="C225">
-        <v>520212</v>
+        <v>52012401</v>
       </c>
       <c r="D225" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E225" t="s">
         <v>191</v>
@@ -6076,16 +6124,16 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>520213</v>
+        <v>52012402</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
       </c>
       <c r="C226">
-        <v>520213</v>
+        <v>52012402</v>
       </c>
       <c r="D226" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E226" t="s">
         <v>191</v>
@@ -6096,16 +6144,16 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>520214</v>
+        <v>52012403</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
       </c>
       <c r="C227">
-        <v>520214</v>
+        <v>52012403</v>
       </c>
       <c r="D227" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E227" t="s">
         <v>191</v>
@@ -6116,16 +6164,16 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>520215</v>
+        <v>520125</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
       </c>
       <c r="C228">
-        <v>520215</v>
+        <v>520125</v>
       </c>
       <c r="D228" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E228" t="s">
         <v>191</v>
@@ -6136,16 +6184,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>520216</v>
+        <v>520126</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
       </c>
       <c r="C229">
-        <v>520216</v>
+        <v>520126</v>
       </c>
       <c r="D229" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E229" t="s">
         <v>191</v>
@@ -6156,16 +6204,16 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>520217</v>
+        <v>520128</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
       </c>
       <c r="C230">
-        <v>520217</v>
+        <v>520128</v>
       </c>
       <c r="D230" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E230" t="s">
         <v>191</v>
@@ -6176,16 +6224,16 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>520218</v>
+        <v>520201</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
       </c>
       <c r="C231">
-        <v>520218</v>
+        <v>520201</v>
       </c>
       <c r="D231" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E231" t="s">
         <v>191</v>
@@ -6196,16 +6244,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>520219</v>
+        <v>520202</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
       </c>
       <c r="C232">
-        <v>520219</v>
+        <v>520202</v>
       </c>
       <c r="D232" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="E232" t="s">
         <v>191</v>
@@ -6216,16 +6264,16 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>520220</v>
+        <v>520203</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
       </c>
       <c r="C233">
-        <v>520220</v>
+        <v>520203</v>
       </c>
       <c r="D233" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="E233" t="s">
         <v>191</v>
@@ -6236,19 +6284,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>52022101</v>
+        <v>520204</v>
       </c>
       <c r="B234" t="s">
         <v>6</v>
       </c>
       <c r="C234">
-        <v>52022101</v>
+        <v>520204</v>
       </c>
       <c r="D234" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="E234" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F234" t="s">
         <v>9</v>
@@ -6256,19 +6304,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>52022102</v>
+        <v>520205</v>
       </c>
       <c r="B235" t="s">
         <v>6</v>
       </c>
       <c r="C235">
-        <v>52022102</v>
+        <v>520205</v>
       </c>
       <c r="D235" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E235" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F235" t="s">
         <v>9</v>
@@ -6276,16 +6324,16 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>52022201</v>
+        <v>520206</v>
       </c>
       <c r="B236" t="s">
         <v>6</v>
       </c>
       <c r="C236">
-        <v>52022201</v>
+        <v>520206</v>
       </c>
       <c r="D236" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E236" t="s">
         <v>191</v>
@@ -6296,16 +6344,16 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>52022202</v>
+        <v>520207</v>
       </c>
       <c r="B237" t="s">
         <v>6</v>
       </c>
       <c r="C237">
-        <v>52022202</v>
+        <v>520207</v>
       </c>
       <c r="D237" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="E237" t="s">
         <v>191</v>
@@ -6316,19 +6364,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>52022301</v>
+        <v>520208</v>
       </c>
       <c r="B238" t="s">
         <v>6</v>
       </c>
       <c r="C238">
-        <v>52022301</v>
+        <v>520208</v>
       </c>
       <c r="D238" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="E238" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F238" t="s">
         <v>9</v>
@@ -6336,19 +6384,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>52022302</v>
+        <v>520209</v>
       </c>
       <c r="B239" t="s">
         <v>6</v>
       </c>
       <c r="C239">
-        <v>52022302</v>
+        <v>520209</v>
       </c>
       <c r="D239" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="E239" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F239" t="s">
         <v>9</v>
@@ -6356,19 +6404,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>52022303</v>
+        <v>520210</v>
       </c>
       <c r="B240" t="s">
         <v>6</v>
       </c>
       <c r="C240">
-        <v>52022303</v>
+        <v>520210</v>
       </c>
       <c r="D240" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="E240" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F240" t="s">
         <v>9</v>
@@ -6376,19 +6424,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>52022304</v>
+        <v>520212</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
       </c>
       <c r="C241">
-        <v>52022304</v>
+        <v>520212</v>
       </c>
       <c r="D241" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="E241" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F241" t="s">
         <v>9</v>
@@ -6396,19 +6444,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>52022305</v>
+        <v>520213</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
       </c>
       <c r="C242">
-        <v>52022305</v>
+        <v>520213</v>
       </c>
       <c r="D242" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="E242" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F242" t="s">
         <v>9</v>
@@ -6416,19 +6464,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>52022306</v>
+        <v>520214</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
       </c>
       <c r="C243">
-        <v>52022306</v>
+        <v>520214</v>
       </c>
       <c r="D243" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="E243" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F243" t="s">
         <v>9</v>
@@ -6436,16 +6484,16 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>52022401</v>
+        <v>520215</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
       </c>
       <c r="C244">
-        <v>52022401</v>
+        <v>520215</v>
       </c>
       <c r="D244" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E244" t="s">
         <v>191</v>
@@ -6456,16 +6504,16 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>52022402</v>
+        <v>520216</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
       </c>
       <c r="C245">
-        <v>52022402</v>
+        <v>520216</v>
       </c>
       <c r="D245" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E245" t="s">
         <v>191</v>
@@ -6476,16 +6524,16 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>52022403</v>
+        <v>520217</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
       </c>
       <c r="C246">
-        <v>52022403</v>
+        <v>520217</v>
       </c>
       <c r="D246" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E246" t="s">
         <v>191</v>
@@ -6496,16 +6544,16 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>520225</v>
+        <v>520218</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
       </c>
       <c r="C247">
-        <v>520225</v>
+        <v>520218</v>
       </c>
       <c r="D247" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E247" t="s">
         <v>191</v>
@@ -6516,16 +6564,16 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>520226</v>
+        <v>520219</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
       </c>
       <c r="C248">
-        <v>520226</v>
+        <v>520219</v>
       </c>
       <c r="D248" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E248" t="s">
         <v>191</v>
@@ -6536,16 +6584,16 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>520227</v>
+        <v>520220</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
       </c>
       <c r="C249">
-        <v>520227</v>
+        <v>520220</v>
       </c>
       <c r="D249" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E249" t="s">
         <v>191</v>
@@ -6556,19 +6604,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>520228</v>
+        <v>52022101</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
       </c>
       <c r="C250">
-        <v>520228</v>
+        <v>52022101</v>
       </c>
       <c r="D250" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E250" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F250" t="s">
         <v>9</v>
@@ -6576,19 +6624,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>520301</v>
+        <v>52022102</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
       </c>
       <c r="C251">
-        <v>520301</v>
+        <v>52022102</v>
       </c>
       <c r="D251" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E251" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F251" t="s">
         <v>9</v>
@@ -6596,16 +6644,16 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>520302</v>
+        <v>52022201</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
       </c>
       <c r="C252">
-        <v>520302</v>
+        <v>52022201</v>
       </c>
       <c r="D252" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="E252" t="s">
         <v>191</v>
@@ -6616,16 +6664,16 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>520303</v>
+        <v>52022202</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
       </c>
       <c r="C253">
-        <v>520303</v>
+        <v>52022202</v>
       </c>
       <c r="D253" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E253" t="s">
         <v>191</v>
@@ -6636,19 +6684,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>520304</v>
+        <v>52022301</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
       </c>
       <c r="C254">
-        <v>520304</v>
+        <v>52022301</v>
       </c>
       <c r="D254" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E254" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F254" t="s">
         <v>9</v>
@@ -6656,19 +6704,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>520305</v>
+        <v>52022302</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
       </c>
       <c r="C255">
-        <v>520305</v>
+        <v>52022302</v>
       </c>
       <c r="D255" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E255" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F255" t="s">
         <v>9</v>
@@ -6676,19 +6724,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>520401</v>
+        <v>52022303</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
       </c>
       <c r="C256">
-        <v>520401</v>
+        <v>52022303</v>
       </c>
       <c r="D256" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E256" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F256" t="s">
         <v>9</v>
@@ -6696,26 +6744,345 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
+        <v>52022304</v>
+      </c>
+      <c r="B257" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257">
+        <v>52022304</v>
+      </c>
+      <c r="D257" t="s">
+        <v>227</v>
+      </c>
+      <c r="E257" t="s">
+        <v>209</v>
+      </c>
+      <c r="F257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>52022305</v>
+      </c>
+      <c r="B258" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258">
+        <v>52022305</v>
+      </c>
+      <c r="D258" t="s">
+        <v>228</v>
+      </c>
+      <c r="E258" t="s">
+        <v>209</v>
+      </c>
+      <c r="F258" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>52022306</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259">
+        <v>52022306</v>
+      </c>
+      <c r="D259" t="s">
+        <v>229</v>
+      </c>
+      <c r="E259" t="s">
+        <v>209</v>
+      </c>
+      <c r="F259" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>52022401</v>
+      </c>
+      <c r="B260" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260">
+        <v>52022401</v>
+      </c>
+      <c r="D260" t="s">
+        <v>213</v>
+      </c>
+      <c r="E260" t="s">
+        <v>191</v>
+      </c>
+      <c r="F260" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>52022402</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261">
+        <v>52022402</v>
+      </c>
+      <c r="D261" t="s">
+        <v>214</v>
+      </c>
+      <c r="E261" t="s">
+        <v>191</v>
+      </c>
+      <c r="F261" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>52022403</v>
+      </c>
+      <c r="B262" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262">
+        <v>52022403</v>
+      </c>
+      <c r="D262" t="s">
+        <v>215</v>
+      </c>
+      <c r="E262" t="s">
+        <v>191</v>
+      </c>
+      <c r="F262" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>520225</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263">
+        <v>520225</v>
+      </c>
+      <c r="D263" t="s">
+        <v>216</v>
+      </c>
+      <c r="E263" t="s">
+        <v>191</v>
+      </c>
+      <c r="F263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>520226</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264">
+        <v>520226</v>
+      </c>
+      <c r="D264" t="s">
+        <v>217</v>
+      </c>
+      <c r="E264" t="s">
+        <v>191</v>
+      </c>
+      <c r="F264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>520227</v>
+      </c>
+      <c r="B265" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265">
+        <v>520227</v>
+      </c>
+      <c r="D265" t="s">
+        <v>230</v>
+      </c>
+      <c r="E265" t="s">
+        <v>191</v>
+      </c>
+      <c r="F265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>520228</v>
+      </c>
+      <c r="B266" t="s">
+        <v>6</v>
+      </c>
+      <c r="C266">
+        <v>520228</v>
+      </c>
+      <c r="D266" t="s">
+        <v>218</v>
+      </c>
+      <c r="E266" t="s">
+        <v>191</v>
+      </c>
+      <c r="F266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>520301</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267">
+        <v>520301</v>
+      </c>
+      <c r="D267" t="s">
+        <v>231</v>
+      </c>
+      <c r="E267" t="s">
+        <v>191</v>
+      </c>
+      <c r="F267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>520302</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268">
+        <v>520302</v>
+      </c>
+      <c r="D268" t="s">
+        <v>198</v>
+      </c>
+      <c r="E268" t="s">
+        <v>191</v>
+      </c>
+      <c r="F268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>520303</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269">
+        <v>520303</v>
+      </c>
+      <c r="D269" t="s">
+        <v>232</v>
+      </c>
+      <c r="E269" t="s">
+        <v>191</v>
+      </c>
+      <c r="F269" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>520304</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270">
+        <v>520304</v>
+      </c>
+      <c r="D270" t="s">
+        <v>233</v>
+      </c>
+      <c r="E270" t="s">
+        <v>191</v>
+      </c>
+      <c r="F270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>520305</v>
+      </c>
+      <c r="B271" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271">
+        <v>520305</v>
+      </c>
+      <c r="D271" t="s">
+        <v>234</v>
+      </c>
+      <c r="E271" t="s">
+        <v>191</v>
+      </c>
+      <c r="F271" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>520401</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272">
+        <v>520401</v>
+      </c>
+      <c r="D272" t="s">
+        <v>235</v>
+      </c>
+      <c r="E272" t="s">
+        <v>191</v>
+      </c>
+      <c r="F272" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273">
         <v>520402</v>
       </c>
-      <c r="B257" t="s">
-        <v>6</v>
-      </c>
-      <c r="C257">
+      <c r="B273" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273">
         <v>520402</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D273" t="s">
         <v>236</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E273" t="s">
         <v>191</v>
       </c>
-      <c r="F257" t="s">
+      <c r="F273" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/l10n_ec_chart/data/account.account.template.xlsx
+++ b/l10n_ec_chart/data/account.account.template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="257">
   <si>
     <t>id</t>
   </si>
@@ -787,6 +787,9 @@
   </si>
   <si>
     <t>COOPMEGO POLIZA</t>
+  </si>
+  <si>
+    <t>account.data_account_type_liquidity</t>
   </si>
 </sst>
 </file>
@@ -1609,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1739,7 @@
         <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1756,7 +1759,7 @@
         <v>243</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
@@ -1776,7 +1779,7 @@
         <v>238</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1796,7 +1799,7 @@
         <v>239</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1816,7 +1819,7 @@
         <v>240</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -1836,7 +1839,7 @@
         <v>241</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1876,7 +1879,7 @@
         <v>245</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -1896,7 +1899,7 @@
         <v>246</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -1916,7 +1919,7 @@
         <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -1936,7 +1939,7 @@
         <v>248</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1956,7 +1959,7 @@
         <v>249</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1976,7 +1979,7 @@
         <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1996,7 +1999,7 @@
         <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -2016,7 +2019,7 @@
         <v>252</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -2036,7 +2039,7 @@
         <v>253</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -2076,7 +2079,7 @@
         <v>255</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>

--- a/l10n_ec_chart/data/account.account.template.xlsx
+++ b/l10n_ec_chart/data/account.account.template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="258">
   <si>
     <t>id</t>
   </si>
@@ -790,6 +790,9 @@
   </si>
   <si>
     <t>account.data_account_type_liquidity</t>
+  </si>
+  <si>
+    <t>CAJA CHICA 3</t>
   </si>
 </sst>
 </file>
@@ -1610,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F273"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1762,7 @@
         <v>243</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
@@ -1807,16 +1810,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>101010103</v>
+        <v>10101010203</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>101010103</v>
+        <v>10101010203</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E10" t="s">
         <v>256</v>
@@ -1827,16 +1830,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>101010104</v>
+        <v>101010103</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>101010104</v>
+        <v>101010103</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E11" t="s">
         <v>256</v>
@@ -1846,57 +1849,57 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12">
+        <v>101010104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>101010104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>101010105</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
         <v>101010105</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10101010501</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>10101010501</v>
-      </c>
-      <c r="D13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E13" t="s">
-        <v>256</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10101010502</v>
+        <v>10101010501</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14">
-        <v>10101010502</v>
+        <v>10101010501</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E14" t="s">
         <v>256</v>
@@ -1907,16 +1910,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10101010503</v>
+        <v>10101010502</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15">
-        <v>10101010503</v>
+        <v>10101010502</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
         <v>256</v>
@@ -1927,16 +1930,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10101010504</v>
+        <v>10101010503</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>10101010504</v>
+        <v>10101010503</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
         <v>256</v>
@@ -1947,16 +1950,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10101010505</v>
+        <v>10101010504</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17">
-        <v>10101010505</v>
+        <v>10101010504</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
         <v>256</v>
@@ -1967,16 +1970,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10101010506</v>
+        <v>10101010505</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18">
-        <v>10101010506</v>
+        <v>10101010505</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
         <v>256</v>
@@ -1987,16 +1990,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>10101010507</v>
+        <v>10101010506</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19">
-        <v>10101010507</v>
+        <v>10101010506</v>
       </c>
       <c r="D19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E19" t="s">
         <v>256</v>
@@ -2007,16 +2010,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10101010508</v>
+        <v>10101010507</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>10101010508</v>
+        <v>10101010507</v>
       </c>
       <c r="D20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E20" t="s">
         <v>256</v>
@@ -2027,16 +2030,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>101010106</v>
+        <v>10101010508</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21">
-        <v>101010106</v>
+        <v>10101010508</v>
       </c>
       <c r="D21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E21" t="s">
         <v>256</v>
@@ -2046,97 +2049,97 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22">
+        <v>101010106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>101010106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>101010107</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
         <v>101010107</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="F23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>10101010701</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
         <v>10101010701</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>255</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>256</v>
       </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>10102</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
         <v>10102</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1010201</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>1010201</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1010202</v>
+        <v>1010201</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26">
-        <v>1010202</v>
+        <v>1010201</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -2147,16 +2150,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1010203</v>
+        <v>1010202</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>1010203</v>
+        <v>1010202</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -2167,16 +2170,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1010204</v>
+        <v>1010203</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>1010204</v>
+        <v>1010203</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -2187,19 +2190,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>101020501</v>
+        <v>1010204</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>101020501</v>
+        <v>1010204</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -2207,16 +2210,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>101020502</v>
+        <v>101020501</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30">
-        <v>101020502</v>
+        <v>101020501</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
         <v>20</v>
@@ -2227,16 +2230,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1010206</v>
+        <v>101020502</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31">
-        <v>1010206</v>
+        <v>101020502</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
         <v>20</v>
@@ -2247,16 +2250,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1010207</v>
+        <v>1010206</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
       </c>
       <c r="C32">
-        <v>1010207</v>
+        <v>1010206</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
         <v>20</v>
@@ -2267,16 +2270,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1010208</v>
+        <v>1010207</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
       </c>
       <c r="C33">
-        <v>1010208</v>
+        <v>1010207</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
         <v>20</v>
@@ -2287,19 +2290,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1010209</v>
+        <v>1010208</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>1010209</v>
+        <v>1010208</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -2307,16 +2310,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1010301</v>
+        <v>1010209</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35">
-        <v>1010301</v>
+        <v>1010209</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -2327,16 +2330,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1010302</v>
+        <v>1010301</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>1010302</v>
+        <v>1010301</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
@@ -2347,16 +2350,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1010303</v>
+        <v>1010302</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37">
-        <v>1010303</v>
+        <v>1010302</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -2367,16 +2370,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1010304</v>
+        <v>1010303</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>1010304</v>
+        <v>1010303</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
@@ -2387,16 +2390,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1010305</v>
+        <v>1010304</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>1010305</v>
+        <v>1010304</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -2407,16 +2410,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1010306</v>
+        <v>1010305</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>1010306</v>
+        <v>1010305</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -2427,16 +2430,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1010307</v>
+        <v>1010306</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>1010307</v>
+        <v>1010306</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
@@ -2447,16 +2450,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1010308</v>
+        <v>1010307</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>1010308</v>
+        <v>1010307</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -2467,16 +2470,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1010309</v>
+        <v>1010308</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>1010309</v>
+        <v>1010308</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -2487,16 +2490,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1010310</v>
+        <v>1010309</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>1010310</v>
+        <v>1010309</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
@@ -2507,16 +2510,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1010311</v>
+        <v>1010310</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>1010311</v>
+        <v>1010310</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -2527,16 +2530,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1010312</v>
+        <v>1010311</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>1010312</v>
+        <v>1010311</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
         <v>13</v>
@@ -2547,16 +2550,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1010313</v>
+        <v>1010312</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>1010313</v>
+        <v>1010312</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s">
         <v>13</v>
@@ -2567,19 +2570,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1010401</v>
+        <v>1010313</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>1010401</v>
+        <v>1010313</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -2587,16 +2590,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1010402</v>
+        <v>1010401</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
       </c>
       <c r="C49">
-        <v>1010402</v>
+        <v>1010401</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
@@ -2607,16 +2610,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1010403</v>
+        <v>1010402</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
       </c>
       <c r="C50">
-        <v>1010403</v>
+        <v>1010402</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
@@ -2627,16 +2630,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1010404</v>
+        <v>1010403</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
       </c>
       <c r="C51">
-        <v>1010404</v>
+        <v>1010403</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
@@ -2647,19 +2650,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1010501</v>
+        <v>1010404</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C52">
-        <v>1010501</v>
+        <v>1010404</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -2667,16 +2670,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1010502</v>
+        <v>1010501</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>1010502</v>
+        <v>1010501</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E53" t="s">
         <v>45</v>
@@ -2687,16 +2690,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1010503</v>
+        <v>1010502</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>1010503</v>
+        <v>1010502</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
         <v>45</v>
@@ -2707,16 +2710,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>10106</v>
+        <v>1010503</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>10106</v>
+        <v>1010503</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E55" t="s">
         <v>45</v>
@@ -2727,19 +2730,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>10107</v>
+        <v>10106</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>10107</v>
+        <v>10106</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -2747,19 +2750,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>10108</v>
+        <v>10107</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>10108</v>
+        <v>10107</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -2767,19 +2770,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1020101</v>
+        <v>10108</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>1020101</v>
+        <v>10108</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -2787,16 +2790,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1020102</v>
+        <v>1020101</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59">
-        <v>1020102</v>
+        <v>1020101</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E59" t="s">
         <v>50</v>
@@ -2807,16 +2810,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1020103</v>
+        <v>1020102</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>1020103</v>
+        <v>1020102</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E60" t="s">
         <v>50</v>
@@ -2827,16 +2830,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1020104</v>
+        <v>1020103</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>1020104</v>
+        <v>1020103</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
         <v>50</v>
@@ -2847,16 +2850,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1020105</v>
+        <v>1020104</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>1020105</v>
+        <v>1020104</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E62" t="s">
         <v>50</v>
@@ -2867,16 +2870,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1020106</v>
+        <v>1020105</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>1020106</v>
+        <v>1020105</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E63" t="s">
         <v>50</v>
@@ -2887,16 +2890,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1020107</v>
+        <v>1020106</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>1020107</v>
+        <v>1020106</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E64" t="s">
         <v>50</v>
@@ -2907,16 +2910,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1020108</v>
+        <v>1020107</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>1020108</v>
+        <v>1020107</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E65" t="s">
         <v>50</v>
@@ -2927,16 +2930,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1020109</v>
+        <v>1020108</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>1020109</v>
+        <v>1020108</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
         <v>50</v>
@@ -2947,16 +2950,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1020110</v>
+        <v>1020109</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>1020110</v>
+        <v>1020109</v>
       </c>
       <c r="D67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E67" t="s">
         <v>50</v>
@@ -2967,16 +2970,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1020111</v>
+        <v>1020110</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>1020111</v>
+        <v>1020110</v>
       </c>
       <c r="D68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E68" t="s">
         <v>50</v>
@@ -2987,16 +2990,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1020112</v>
+        <v>1020111</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69">
-        <v>1020112</v>
+        <v>1020111</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E69" t="s">
         <v>50</v>
@@ -3007,16 +3010,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1020113</v>
+        <v>1020112</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>1020113</v>
+        <v>1020112</v>
       </c>
       <c r="D70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E70" t="s">
         <v>50</v>
@@ -3027,16 +3030,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>102011401</v>
+        <v>1020113</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71">
-        <v>102011401</v>
+        <v>1020113</v>
       </c>
       <c r="D71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E71" t="s">
         <v>50</v>
@@ -3047,16 +3050,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>102011402</v>
+        <v>102011401</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
       <c r="C72">
-        <v>102011402</v>
+        <v>102011401</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E72" t="s">
         <v>50</v>
@@ -3067,16 +3070,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>102011403</v>
+        <v>102011402</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>102011403</v>
+        <v>102011402</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
         <v>50</v>
@@ -3087,16 +3090,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1020201</v>
+        <v>102011403</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>1020201</v>
+        <v>102011403</v>
       </c>
       <c r="D74" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E74" t="s">
         <v>50</v>
@@ -3107,16 +3110,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1020202</v>
+        <v>1020201</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75">
-        <v>1020202</v>
+        <v>1020201</v>
       </c>
       <c r="D75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E75" t="s">
         <v>50</v>
@@ -3127,16 +3130,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1020203</v>
+        <v>1020202</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
       <c r="C76">
-        <v>1020203</v>
+        <v>1020202</v>
       </c>
       <c r="D76" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E76" t="s">
         <v>50</v>
@@ -3147,16 +3150,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1020204</v>
+        <v>1020203</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
       </c>
       <c r="C77">
-        <v>1020204</v>
+        <v>1020203</v>
       </c>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E77" t="s">
         <v>50</v>
@@ -3167,16 +3170,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1020301</v>
+        <v>1020204</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78">
-        <v>1020301</v>
+        <v>1020204</v>
       </c>
       <c r="D78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E78" t="s">
         <v>50</v>
@@ -3187,16 +3190,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1020302</v>
+        <v>1020301</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>1020302</v>
+        <v>1020301</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E79" t="s">
         <v>50</v>
@@ -3207,16 +3210,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1020303</v>
+        <v>1020302</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80">
-        <v>1020303</v>
+        <v>1020302</v>
       </c>
       <c r="D80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E80" t="s">
         <v>50</v>
@@ -3227,16 +3230,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1020304</v>
+        <v>1020303</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81">
-        <v>1020304</v>
+        <v>1020303</v>
       </c>
       <c r="D81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E81" t="s">
         <v>50</v>
@@ -3247,16 +3250,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1020305</v>
+        <v>1020304</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>1020305</v>
+        <v>1020304</v>
       </c>
       <c r="D82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E82" t="s">
         <v>50</v>
@@ -3267,16 +3270,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1020306</v>
+        <v>1020305</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>1020306</v>
+        <v>1020305</v>
       </c>
       <c r="D83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E83" t="s">
         <v>50</v>
@@ -3287,16 +3290,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1020401</v>
+        <v>1020306</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>1020401</v>
+        <v>1020306</v>
       </c>
       <c r="D84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E84" t="s">
         <v>50</v>
@@ -3307,16 +3310,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1020402</v>
+        <v>1020401</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85">
-        <v>1020402</v>
+        <v>1020401</v>
       </c>
       <c r="D85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E85" t="s">
         <v>50</v>
@@ -3327,16 +3330,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1020403</v>
+        <v>1020402</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
       <c r="C86">
-        <v>1020403</v>
+        <v>1020402</v>
       </c>
       <c r="D86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E86" t="s">
         <v>50</v>
@@ -3347,16 +3350,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1020404</v>
+        <v>1020403</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
       <c r="C87">
-        <v>1020404</v>
+        <v>1020403</v>
       </c>
       <c r="D87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E87" t="s">
         <v>50</v>
@@ -3367,16 +3370,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1020405</v>
+        <v>1020404</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88">
-        <v>1020405</v>
+        <v>1020404</v>
       </c>
       <c r="D88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E88" t="s">
         <v>50</v>
@@ -3387,16 +3390,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1020406</v>
+        <v>1020405</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89">
-        <v>1020406</v>
+        <v>1020405</v>
       </c>
       <c r="D89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E89" t="s">
         <v>50</v>
@@ -3407,16 +3410,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>10205</v>
+        <v>1020406</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90">
-        <v>10205</v>
+        <v>1020406</v>
       </c>
       <c r="D90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E90" t="s">
         <v>50</v>
@@ -3427,16 +3430,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1020601</v>
+        <v>10205</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91">
-        <v>1020601</v>
+        <v>10205</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="E91" t="s">
         <v>50</v>
@@ -3447,16 +3450,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1020602</v>
+        <v>1020601</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92">
-        <v>1020602</v>
+        <v>1020601</v>
       </c>
       <c r="D92" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
         <v>50</v>
@@ -3467,16 +3470,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1020603</v>
+        <v>1020602</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93">
-        <v>1020603</v>
+        <v>1020602</v>
       </c>
       <c r="D93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E93" t="s">
         <v>50</v>
@@ -3487,16 +3490,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1020604</v>
+        <v>1020603</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94">
-        <v>1020604</v>
+        <v>1020603</v>
       </c>
       <c r="D94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E94" t="s">
         <v>50</v>
@@ -3507,16 +3510,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1020701</v>
+        <v>1020604</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95">
-        <v>1020701</v>
+        <v>1020604</v>
       </c>
       <c r="D95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E95" t="s">
         <v>50</v>
@@ -3527,16 +3530,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1020702</v>
+        <v>1020701</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96">
-        <v>1020702</v>
+        <v>1020701</v>
       </c>
       <c r="D96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E96" t="s">
         <v>50</v>
@@ -3547,16 +3550,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1020703</v>
+        <v>1020702</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97">
-        <v>1020703</v>
+        <v>1020702</v>
       </c>
       <c r="D97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E97" t="s">
         <v>50</v>
@@ -3567,16 +3570,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1020704</v>
+        <v>1020703</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98">
-        <v>1020704</v>
+        <v>1020703</v>
       </c>
       <c r="D98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E98" t="s">
         <v>50</v>
@@ -3587,16 +3590,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1020705</v>
+        <v>1020704</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99">
-        <v>1020705</v>
+        <v>1020704</v>
       </c>
       <c r="D99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E99" t="s">
         <v>50</v>
@@ -3607,16 +3610,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1020706</v>
+        <v>1020705</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100">
-        <v>1020706</v>
+        <v>1020705</v>
       </c>
       <c r="D100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E100" t="s">
         <v>50</v>
@@ -3627,19 +3630,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>20101</v>
+        <v>1020706</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101">
-        <v>20101</v>
+        <v>1020706</v>
       </c>
       <c r="D101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F101" t="s">
         <v>9</v>
@@ -3647,16 +3650,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>20102</v>
+        <v>20101</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102">
-        <v>20102</v>
+        <v>20101</v>
       </c>
       <c r="D102" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E102" t="s">
         <v>93</v>
@@ -3667,19 +3670,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>2010301</v>
+        <v>20102</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C103">
-        <v>2010301</v>
+        <v>20102</v>
       </c>
       <c r="D103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E103" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F103" t="s">
         <v>9</v>
@@ -3687,16 +3690,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>2010302</v>
+        <v>2010301</v>
       </c>
       <c r="B104" t="s">
         <v>18</v>
       </c>
       <c r="C104">
-        <v>2010302</v>
+        <v>2010301</v>
       </c>
       <c r="D104" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E104" t="s">
         <v>96</v>
@@ -3707,19 +3710,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>2010401</v>
+        <v>2010302</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C105">
-        <v>2010401</v>
+        <v>2010302</v>
       </c>
       <c r="D105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E105" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F105" t="s">
         <v>9</v>
@@ -3727,16 +3730,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>2010402</v>
+        <v>2010401</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106">
-        <v>2010402</v>
+        <v>2010401</v>
       </c>
       <c r="D106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E106" t="s">
         <v>93</v>
@@ -3747,16 +3750,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>2010501</v>
+        <v>2010402</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107">
-        <v>2010501</v>
+        <v>2010402</v>
       </c>
       <c r="D107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E107" t="s">
         <v>93</v>
@@ -3767,16 +3770,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>2010502</v>
+        <v>2010501</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108">
-        <v>2010502</v>
+        <v>2010501</v>
       </c>
       <c r="D108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E108" t="s">
         <v>93</v>
@@ -3787,16 +3790,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>20106</v>
+        <v>2010502</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109">
-        <v>20106</v>
+        <v>2010502</v>
       </c>
       <c r="D109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E109" t="s">
         <v>93</v>
@@ -3807,16 +3810,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>2010701</v>
+        <v>20106</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110">
-        <v>2010701</v>
+        <v>20106</v>
       </c>
       <c r="D110" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E110" t="s">
         <v>93</v>
@@ -3827,16 +3830,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>2010702</v>
+        <v>2010701</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111">
-        <v>2010702</v>
+        <v>2010701</v>
       </c>
       <c r="D111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E111" t="s">
         <v>93</v>
@@ -3847,16 +3850,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>2010703</v>
+        <v>2010702</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112">
-        <v>2010703</v>
+        <v>2010702</v>
       </c>
       <c r="D112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E112" t="s">
         <v>93</v>
@@ -3867,16 +3870,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>2010704</v>
+        <v>2010703</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113">
-        <v>2010704</v>
+        <v>2010703</v>
       </c>
       <c r="D113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E113" t="s">
         <v>93</v>
@@ -3887,16 +3890,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>2010705</v>
+        <v>2010704</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114">
-        <v>2010705</v>
+        <v>2010704</v>
       </c>
       <c r="D114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E114" t="s">
         <v>93</v>
@@ -3907,16 +3910,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>2010706</v>
+        <v>2010705</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115">
-        <v>2010706</v>
+        <v>2010705</v>
       </c>
       <c r="D115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E115" t="s">
         <v>93</v>
@@ -3927,16 +3930,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>20108</v>
+        <v>2010706</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116">
-        <v>20108</v>
+        <v>2010706</v>
       </c>
       <c r="D116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E116" t="s">
         <v>93</v>
@@ -3947,16 +3950,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>20109</v>
+        <v>20108</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
       <c r="C117">
-        <v>20109</v>
+        <v>20108</v>
       </c>
       <c r="D117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E117" t="s">
         <v>93</v>
@@ -3967,16 +3970,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>20110</v>
+        <v>20109</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>20110</v>
+        <v>20109</v>
       </c>
       <c r="D118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E118" t="s">
         <v>93</v>
@@ -3987,16 +3990,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>20111</v>
+        <v>20110</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C119">
-        <v>20111</v>
+        <v>20110</v>
       </c>
       <c r="D119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E119" t="s">
         <v>93</v>
@@ -4007,16 +4010,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2011201</v>
+        <v>20111</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
       </c>
       <c r="C120">
-        <v>2011201</v>
+        <v>20111</v>
       </c>
       <c r="D120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E120" t="s">
         <v>93</v>
@@ -4027,16 +4030,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>2011202</v>
+        <v>2011201</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
       <c r="C121">
-        <v>2011202</v>
+        <v>2011201</v>
       </c>
       <c r="D121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E121" t="s">
         <v>93</v>
@@ -4047,16 +4050,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>20113</v>
+        <v>2011202</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
       </c>
       <c r="C122">
-        <v>20113</v>
+        <v>2011202</v>
       </c>
       <c r="D122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E122" t="s">
         <v>93</v>
@@ -4067,19 +4070,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>20201</v>
+        <v>20113</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
       </c>
       <c r="C123">
-        <v>20201</v>
+        <v>20113</v>
       </c>
       <c r="D123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E123" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F123" t="s">
         <v>9</v>
@@ -4087,16 +4090,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>2020201</v>
+        <v>20201</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124">
-        <v>2020201</v>
+        <v>20201</v>
       </c>
       <c r="D124" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E124" t="s">
         <v>117</v>
@@ -4107,16 +4110,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>2020202</v>
+        <v>2020201</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125">
-        <v>2020202</v>
+        <v>2020201</v>
       </c>
       <c r="D125" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E125" t="s">
         <v>117</v>
@@ -4127,16 +4130,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>2020301</v>
+        <v>2020202</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
       </c>
       <c r="C126">
-        <v>2020301</v>
+        <v>2020202</v>
       </c>
       <c r="D126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E126" t="s">
         <v>117</v>
@@ -4147,16 +4150,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>2020302</v>
+        <v>2020301</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127">
-        <v>2020302</v>
+        <v>2020301</v>
       </c>
       <c r="D127" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E127" t="s">
         <v>117</v>
@@ -4167,16 +4170,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2020401</v>
+        <v>2020302</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128">
-        <v>2020401</v>
+        <v>2020302</v>
       </c>
       <c r="D128" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E128" t="s">
         <v>117</v>
@@ -4187,16 +4190,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>2020402</v>
+        <v>2020401</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129">
-        <v>2020402</v>
+        <v>2020401</v>
       </c>
       <c r="D129" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E129" t="s">
         <v>117</v>
@@ -4207,16 +4210,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>20205</v>
+        <v>2020402</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130">
-        <v>20205</v>
+        <v>2020402</v>
       </c>
       <c r="D130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E130" t="s">
         <v>117</v>
@@ -4227,16 +4230,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>20206</v>
+        <v>20205</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C131">
-        <v>20206</v>
+        <v>20205</v>
       </c>
       <c r="D131" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E131" t="s">
         <v>117</v>
@@ -4247,16 +4250,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>2020701</v>
+        <v>20206</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C132">
-        <v>2020701</v>
+        <v>20206</v>
       </c>
       <c r="D132" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E132" t="s">
         <v>117</v>
@@ -4267,16 +4270,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>2020702</v>
+        <v>2020701</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
       <c r="C133">
-        <v>2020702</v>
+        <v>2020701</v>
       </c>
       <c r="D133" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E133" t="s">
         <v>117</v>
@@ -4287,16 +4290,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>20208</v>
+        <v>2020702</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
       </c>
       <c r="C134">
-        <v>20208</v>
+        <v>2020702</v>
       </c>
       <c r="D134" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E134" t="s">
         <v>117</v>
@@ -4307,16 +4310,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>2020901</v>
+        <v>20208</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
       <c r="C135">
-        <v>2020901</v>
+        <v>20208</v>
       </c>
       <c r="D135" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E135" t="s">
         <v>117</v>
@@ -4327,16 +4330,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>2020902</v>
+        <v>2020901</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136">
-        <v>2020902</v>
+        <v>2020901</v>
       </c>
       <c r="D136" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E136" t="s">
         <v>117</v>
@@ -4347,16 +4350,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>20210</v>
+        <v>2020902</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="C137">
-        <v>20210</v>
+        <v>2020902</v>
       </c>
       <c r="D137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E137" t="s">
         <v>117</v>
@@ -4367,19 +4370,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>30101</v>
+        <v>20210</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
       </c>
       <c r="C138">
-        <v>30101</v>
+        <v>20210</v>
       </c>
       <c r="D138" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E138" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F138" t="s">
         <v>9</v>
@@ -4387,16 +4390,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>30102</v>
+        <v>30101</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
       </c>
       <c r="C139">
-        <v>30102</v>
+        <v>30101</v>
       </c>
       <c r="D139" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E139" t="s">
         <v>127</v>
@@ -4407,16 +4410,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>302</v>
+        <v>30102</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
       </c>
       <c r="C140">
-        <v>302</v>
+        <v>30102</v>
       </c>
       <c r="D140" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E140" t="s">
         <v>127</v>
@@ -4427,16 +4430,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
       </c>
       <c r="C141">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D141" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E141" t="s">
         <v>127</v>
@@ -4447,16 +4450,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>30401</v>
+        <v>303</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
       </c>
       <c r="C142">
-        <v>30401</v>
+        <v>303</v>
       </c>
       <c r="D142" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E142" t="s">
         <v>127</v>
@@ -4467,16 +4470,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>30402</v>
+        <v>30401</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
       </c>
       <c r="C143">
-        <v>30402</v>
+        <v>30401</v>
       </c>
       <c r="D143" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E143" t="s">
         <v>127</v>
@@ -4487,16 +4490,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>30501</v>
+        <v>30402</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
       </c>
       <c r="C144">
-        <v>30501</v>
+        <v>30402</v>
       </c>
       <c r="D144" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E144" t="s">
         <v>127</v>
@@ -4507,16 +4510,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>30502</v>
+        <v>30501</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
       </c>
       <c r="C145">
-        <v>30502</v>
+        <v>30501</v>
       </c>
       <c r="D145" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E145" t="s">
         <v>127</v>
@@ -4527,16 +4530,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>30503</v>
+        <v>30502</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
       </c>
       <c r="C146">
-        <v>30503</v>
+        <v>30502</v>
       </c>
       <c r="D146" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E146" t="s">
         <v>127</v>
@@ -4547,16 +4550,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>30504</v>
+        <v>30503</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
       <c r="C147">
-        <v>30504</v>
+        <v>30503</v>
       </c>
       <c r="D147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E147" t="s">
         <v>127</v>
@@ -4567,16 +4570,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>30601</v>
+        <v>30504</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
       </c>
       <c r="C148">
-        <v>30601</v>
+        <v>30504</v>
       </c>
       <c r="D148" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E148" t="s">
         <v>127</v>
@@ -4587,16 +4590,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>30602</v>
+        <v>30601</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
       </c>
       <c r="C149">
-        <v>30602</v>
+        <v>30601</v>
       </c>
       <c r="D149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E149" t="s">
         <v>127</v>
@@ -4607,16 +4610,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>30603</v>
+        <v>30602</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
       </c>
       <c r="C150">
-        <v>30603</v>
+        <v>30602</v>
       </c>
       <c r="D150" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E150" t="s">
         <v>127</v>
@@ -4627,16 +4630,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>30604</v>
+        <v>30603</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
       <c r="C151">
-        <v>30604</v>
+        <v>30603</v>
       </c>
       <c r="D151" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E151" t="s">
         <v>127</v>
@@ -4647,16 +4650,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>30605</v>
+        <v>30604</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
       </c>
       <c r="C152">
-        <v>30605</v>
+        <v>30604</v>
       </c>
       <c r="D152" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E152" t="s">
         <v>127</v>
@@ -4667,16 +4670,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>30606</v>
+        <v>30605</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
       </c>
       <c r="C153">
-        <v>30606</v>
+        <v>30605</v>
       </c>
       <c r="D153" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E153" t="s">
         <v>127</v>
@@ -4687,16 +4690,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>30607</v>
+        <v>30606</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
       </c>
       <c r="C154">
-        <v>30607</v>
+        <v>30606</v>
       </c>
       <c r="D154" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E154" t="s">
         <v>127</v>
@@ -4707,16 +4710,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>30701</v>
+        <v>30607</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
       </c>
       <c r="C155">
-        <v>30701</v>
+        <v>30607</v>
       </c>
       <c r="D155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E155" t="s">
         <v>127</v>
@@ -4727,16 +4730,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>30702</v>
+        <v>30701</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
       </c>
       <c r="C156">
-        <v>30702</v>
+        <v>30701</v>
       </c>
       <c r="D156" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E156" t="s">
         <v>127</v>
@@ -4747,16 +4750,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>31</v>
+        <v>30702</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
       </c>
       <c r="C157">
-        <v>31</v>
+        <v>30702</v>
       </c>
       <c r="D157" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E157" t="s">
         <v>127</v>
@@ -4767,19 +4770,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>4101</v>
+        <v>31</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
       </c>
       <c r="C158">
-        <v>4101</v>
+        <v>31</v>
       </c>
       <c r="D158" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E158" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F158" t="s">
         <v>9</v>
@@ -4787,16 +4790,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
       </c>
       <c r="C159">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="D159" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E159" t="s">
         <v>148</v>
@@ -4807,16 +4810,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="C160">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="D160" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E160" t="s">
         <v>148</v>
@@ -4827,16 +4830,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
       </c>
       <c r="C161">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="D161" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E161" t="s">
         <v>148</v>
@@ -4847,16 +4850,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
       </c>
       <c r="C162">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="D162" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E162" t="s">
         <v>148</v>
@@ -4867,16 +4870,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>410601</v>
+        <v>4105</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
       </c>
       <c r="C163">
-        <v>410601</v>
+        <v>4105</v>
       </c>
       <c r="D163" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E163" t="s">
         <v>148</v>
@@ -4887,16 +4890,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>410602</v>
+        <v>410601</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
       </c>
       <c r="C164">
-        <v>410602</v>
+        <v>410601</v>
       </c>
       <c r="D164" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E164" t="s">
         <v>148</v>
@@ -4907,16 +4910,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>4107</v>
+        <v>410602</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
       <c r="C165">
-        <v>4107</v>
+        <v>410602</v>
       </c>
       <c r="D165" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E165" t="s">
         <v>148</v>
@@ -4927,16 +4930,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
       </c>
       <c r="C166">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="D166" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E166" t="s">
         <v>148</v>
@@ -4947,16 +4950,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
       </c>
       <c r="C167">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="D167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E167" t="s">
         <v>148</v>
@@ -4967,16 +4970,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
       </c>
       <c r="C168">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="D168" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E168" t="s">
         <v>148</v>
@@ -4987,16 +4990,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
       </c>
       <c r="C169">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="D169" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E169" t="s">
         <v>148</v>
@@ -5007,16 +5010,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
       </c>
       <c r="C170">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="D170" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E170" t="s">
         <v>148</v>
@@ -5027,16 +5030,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
       </c>
       <c r="C171">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="D171" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E171" t="s">
         <v>148</v>
@@ -5047,19 +5050,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>4301</v>
+        <v>4113</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
       </c>
       <c r="C172">
-        <v>4301</v>
+        <v>4113</v>
       </c>
       <c r="D172" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E172" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F172" t="s">
         <v>9</v>
@@ -5067,16 +5070,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
       </c>
       <c r="C173">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="D173" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E173" t="s">
         <v>162</v>
@@ -5087,16 +5090,16 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
       </c>
       <c r="C174">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="D174" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E174" t="s">
         <v>162</v>
@@ -5107,16 +5110,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
       </c>
       <c r="C175">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="D175" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E175" t="s">
         <v>162</v>
@@ -5127,16 +5130,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
       </c>
       <c r="C176">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="D176" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E176" t="s">
         <v>162</v>
@@ -5147,19 +5150,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>510101</v>
+        <v>4305</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
       </c>
       <c r="C177">
-        <v>510101</v>
+        <v>4305</v>
       </c>
       <c r="D177" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E177" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F177" t="s">
         <v>9</v>
@@ -5167,16 +5170,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>510102</v>
+        <v>510101</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
       </c>
       <c r="C178">
-        <v>510102</v>
+        <v>510101</v>
       </c>
       <c r="D178" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E178" t="s">
         <v>168</v>
@@ -5187,16 +5190,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>510103</v>
+        <v>510102</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
       </c>
       <c r="C179">
-        <v>510103</v>
+        <v>510102</v>
       </c>
       <c r="D179" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E179" t="s">
         <v>168</v>
@@ -5207,16 +5210,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>510104</v>
+        <v>510103</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
       </c>
       <c r="C180">
-        <v>510104</v>
+        <v>510103</v>
       </c>
       <c r="D180" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E180" t="s">
         <v>168</v>
@@ -5227,16 +5230,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>510105</v>
+        <v>510104</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
       </c>
       <c r="C181">
-        <v>510105</v>
+        <v>510104</v>
       </c>
       <c r="D181" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E181" t="s">
         <v>168</v>
@@ -5247,16 +5250,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>510106</v>
+        <v>510105</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
       </c>
       <c r="C182">
-        <v>510106</v>
+        <v>510105</v>
       </c>
       <c r="D182" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E182" t="s">
         <v>168</v>
@@ -5267,16 +5270,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>510107</v>
+        <v>510106</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
       </c>
       <c r="C183">
-        <v>510107</v>
+        <v>510106</v>
       </c>
       <c r="D183" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E183" t="s">
         <v>168</v>
@@ -5287,16 +5290,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>510108</v>
+        <v>510107</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
       </c>
       <c r="C184">
-        <v>510108</v>
+        <v>510107</v>
       </c>
       <c r="D184" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E184" t="s">
         <v>168</v>
@@ -5307,16 +5310,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>510109</v>
+        <v>510108</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
       </c>
       <c r="C185">
-        <v>510109</v>
+        <v>510108</v>
       </c>
       <c r="D185" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E185" t="s">
         <v>168</v>
@@ -5327,16 +5330,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>510110</v>
+        <v>510109</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
       </c>
       <c r="C186">
-        <v>510110</v>
+        <v>510109</v>
       </c>
       <c r="D186" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E186" t="s">
         <v>168</v>
@@ -5347,16 +5350,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>510111</v>
+        <v>510110</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
       </c>
       <c r="C187">
-        <v>510111</v>
+        <v>510110</v>
       </c>
       <c r="D187" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E187" t="s">
         <v>168</v>
@@ -5367,16 +5370,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>510112</v>
+        <v>510111</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
       </c>
       <c r="C188">
-        <v>510112</v>
+        <v>510111</v>
       </c>
       <c r="D188" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E188" t="s">
         <v>168</v>
@@ -5387,16 +5390,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>510201</v>
+        <v>510112</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
       </c>
       <c r="C189">
-        <v>510201</v>
+        <v>510112</v>
       </c>
       <c r="D189" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E189" t="s">
         <v>168</v>
@@ -5407,16 +5410,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>510202</v>
+        <v>510201</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
       </c>
       <c r="C190">
-        <v>510202</v>
+        <v>510201</v>
       </c>
       <c r="D190" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E190" t="s">
         <v>168</v>
@@ -5427,16 +5430,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>510301</v>
+        <v>510202</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
       </c>
       <c r="C191">
-        <v>510301</v>
+        <v>510202</v>
       </c>
       <c r="D191" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E191" t="s">
         <v>168</v>
@@ -5447,16 +5450,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>510302</v>
+        <v>510301</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
       </c>
       <c r="C192">
-        <v>510302</v>
+        <v>510301</v>
       </c>
       <c r="D192" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E192" t="s">
         <v>168</v>
@@ -5467,16 +5470,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>510401</v>
+        <v>510302</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
       </c>
       <c r="C193">
-        <v>510401</v>
+        <v>510302</v>
       </c>
       <c r="D193" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E193" t="s">
         <v>168</v>
@@ -5487,16 +5490,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>510402</v>
+        <v>510401</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
       </c>
       <c r="C194">
-        <v>510402</v>
+        <v>510401</v>
       </c>
       <c r="D194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E194" t="s">
         <v>168</v>
@@ -5507,16 +5510,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>510403</v>
+        <v>510402</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
       </c>
       <c r="C195">
-        <v>510403</v>
+        <v>510402</v>
       </c>
       <c r="D195" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E195" t="s">
         <v>168</v>
@@ -5527,16 +5530,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>510404</v>
+        <v>510403</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
       </c>
       <c r="C196">
-        <v>510404</v>
+        <v>510403</v>
       </c>
       <c r="D196" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E196" t="s">
         <v>168</v>
@@ -5547,16 +5550,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>510405</v>
+        <v>510404</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
       </c>
       <c r="C197">
-        <v>510405</v>
+        <v>510404</v>
       </c>
       <c r="D197" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E197" t="s">
         <v>168</v>
@@ -5567,16 +5570,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>510406</v>
+        <v>510405</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
       </c>
       <c r="C198">
-        <v>510406</v>
+        <v>510405</v>
       </c>
       <c r="D198" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E198" t="s">
         <v>168</v>
@@ -5587,16 +5590,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>510407</v>
+        <v>510406</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
       </c>
       <c r="C199">
-        <v>510407</v>
+        <v>510406</v>
       </c>
       <c r="D199" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E199" t="s">
         <v>168</v>
@@ -5607,16 +5610,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>510408</v>
+        <v>510407</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
       </c>
       <c r="C200">
-        <v>510408</v>
+        <v>510407</v>
       </c>
       <c r="D200" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E200" t="s">
         <v>168</v>
@@ -5627,19 +5630,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>520101</v>
+        <v>510408</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
       </c>
       <c r="C201">
-        <v>520101</v>
+        <v>510408</v>
       </c>
       <c r="D201" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E201" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F201" t="s">
         <v>9</v>
@@ -5647,16 +5650,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>520102</v>
+        <v>520101</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
       </c>
       <c r="C202">
-        <v>520102</v>
+        <v>520101</v>
       </c>
       <c r="D202" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E202" t="s">
         <v>191</v>
@@ -5667,16 +5670,16 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>520103</v>
+        <v>520102</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
       </c>
       <c r="C203">
-        <v>520103</v>
+        <v>520102</v>
       </c>
       <c r="D203" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E203" t="s">
         <v>191</v>
@@ -5687,16 +5690,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>520104</v>
+        <v>520103</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
       </c>
       <c r="C204">
-        <v>520104</v>
+        <v>520103</v>
       </c>
       <c r="D204" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E204" t="s">
         <v>191</v>
@@ -5707,16 +5710,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>520105</v>
+        <v>520104</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
       </c>
       <c r="C205">
-        <v>520105</v>
+        <v>520104</v>
       </c>
       <c r="D205" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E205" t="s">
         <v>191</v>
@@ -5727,16 +5730,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>520106</v>
+        <v>520105</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
       </c>
       <c r="C206">
-        <v>520106</v>
+        <v>520105</v>
       </c>
       <c r="D206" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E206" t="s">
         <v>191</v>
@@ -5747,16 +5750,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>520107</v>
+        <v>520106</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
       </c>
       <c r="C207">
-        <v>520107</v>
+        <v>520106</v>
       </c>
       <c r="D207" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E207" t="s">
         <v>191</v>
@@ -5767,16 +5770,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>520108</v>
+        <v>520107</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
       </c>
       <c r="C208">
-        <v>520108</v>
+        <v>520107</v>
       </c>
       <c r="D208" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E208" t="s">
         <v>191</v>
@@ -5787,16 +5790,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>520109</v>
+        <v>520108</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
       </c>
       <c r="C209">
-        <v>520109</v>
+        <v>520108</v>
       </c>
       <c r="D209" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E209" t="s">
         <v>191</v>
@@ -5807,16 +5810,16 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>520110</v>
+        <v>520109</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
       </c>
       <c r="C210">
-        <v>520110</v>
+        <v>520109</v>
       </c>
       <c r="D210" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E210" t="s">
         <v>191</v>
@@ -5827,16 +5830,16 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>520111</v>
+        <v>520110</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
       </c>
       <c r="C211">
-        <v>520111</v>
+        <v>520110</v>
       </c>
       <c r="D211" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E211" t="s">
         <v>191</v>
@@ -5847,16 +5850,16 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>520112</v>
+        <v>520111</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
       </c>
       <c r="C212">
-        <v>520112</v>
+        <v>520111</v>
       </c>
       <c r="D212" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E212" t="s">
         <v>191</v>
@@ -5867,16 +5870,16 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>520113</v>
+        <v>520112</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
       </c>
       <c r="C213">
-        <v>520113</v>
+        <v>520112</v>
       </c>
       <c r="D213" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E213" t="s">
         <v>191</v>
@@ -5887,16 +5890,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>520114</v>
+        <v>520113</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
       </c>
       <c r="C214">
-        <v>520114</v>
+        <v>520113</v>
       </c>
       <c r="D214" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E214" t="s">
         <v>191</v>
@@ -5907,16 +5910,16 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>520115</v>
+        <v>520114</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
       </c>
       <c r="C215">
-        <v>520115</v>
+        <v>520114</v>
       </c>
       <c r="D215" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E215" t="s">
         <v>191</v>
@@ -5927,16 +5930,16 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>520116</v>
+        <v>520115</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
       </c>
       <c r="C216">
-        <v>520116</v>
+        <v>520115</v>
       </c>
       <c r="D216" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E216" t="s">
         <v>191</v>
@@ -5947,16 +5950,16 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>520117</v>
+        <v>520116</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
       </c>
       <c r="C217">
-        <v>520117</v>
+        <v>520116</v>
       </c>
       <c r="D217" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E217" t="s">
         <v>191</v>
@@ -5967,16 +5970,16 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>520118</v>
+        <v>520117</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
       </c>
       <c r="C218">
-        <v>520118</v>
+        <v>520117</v>
       </c>
       <c r="D218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E218" t="s">
         <v>191</v>
@@ -5987,16 +5990,16 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>520119</v>
+        <v>520118</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
       </c>
       <c r="C219">
-        <v>520119</v>
+        <v>520118</v>
       </c>
       <c r="D219" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E219" t="s">
         <v>191</v>
@@ -6007,19 +6010,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>52012101</v>
+        <v>520119</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
       </c>
       <c r="C220">
-        <v>52012101</v>
+        <v>520119</v>
       </c>
       <c r="D220" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E220" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F220" t="s">
         <v>9</v>
@@ -6027,16 +6030,16 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>52012102</v>
+        <v>52012101</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
       </c>
       <c r="C221">
-        <v>52012102</v>
+        <v>52012101</v>
       </c>
       <c r="D221" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E221" t="s">
         <v>209</v>
@@ -6047,16 +6050,16 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>52012201</v>
+        <v>52012102</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
       </c>
       <c r="C222">
-        <v>52012201</v>
+        <v>52012102</v>
       </c>
       <c r="D222" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E222" t="s">
         <v>209</v>
@@ -6067,16 +6070,16 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>52012202</v>
+        <v>52012201</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
       </c>
       <c r="C223">
-        <v>52012202</v>
+        <v>52012201</v>
       </c>
       <c r="D223" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E223" t="s">
         <v>209</v>
@@ -6087,16 +6090,16 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>52012301</v>
+        <v>52012202</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
       </c>
       <c r="C224">
-        <v>52012301</v>
+        <v>52012202</v>
       </c>
       <c r="D224" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E224" t="s">
         <v>209</v>
@@ -6107,19 +6110,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>52012401</v>
+        <v>52012301</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
       </c>
       <c r="C225">
-        <v>52012401</v>
+        <v>52012301</v>
       </c>
       <c r="D225" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E225" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F225" t="s">
         <v>9</v>
@@ -6127,16 +6130,16 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>52012402</v>
+        <v>52012401</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
       </c>
       <c r="C226">
-        <v>52012402</v>
+        <v>52012401</v>
       </c>
       <c r="D226" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E226" t="s">
         <v>191</v>
@@ -6147,16 +6150,16 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>52012403</v>
+        <v>52012402</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
       </c>
       <c r="C227">
-        <v>52012403</v>
+        <v>52012402</v>
       </c>
       <c r="D227" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E227" t="s">
         <v>191</v>
@@ -6167,16 +6170,16 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>520125</v>
+        <v>52012403</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
       </c>
       <c r="C228">
-        <v>520125</v>
+        <v>52012403</v>
       </c>
       <c r="D228" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E228" t="s">
         <v>191</v>
@@ -6187,16 +6190,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>520126</v>
+        <v>520125</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
       </c>
       <c r="C229">
-        <v>520126</v>
+        <v>520125</v>
       </c>
       <c r="D229" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E229" t="s">
         <v>191</v>
@@ -6207,16 +6210,16 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>520128</v>
+        <v>520126</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
       </c>
       <c r="C230">
-        <v>520128</v>
+        <v>520126</v>
       </c>
       <c r="D230" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E230" t="s">
         <v>191</v>
@@ -6227,16 +6230,16 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>520201</v>
+        <v>520128</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
       </c>
       <c r="C231">
-        <v>520201</v>
+        <v>520128</v>
       </c>
       <c r="D231" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E231" t="s">
         <v>191</v>
@@ -6247,16 +6250,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>520202</v>
+        <v>520201</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
       </c>
       <c r="C232">
-        <v>520202</v>
+        <v>520201</v>
       </c>
       <c r="D232" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E232" t="s">
         <v>191</v>
@@ -6267,16 +6270,16 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>520203</v>
+        <v>520202</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
       </c>
       <c r="C233">
-        <v>520203</v>
+        <v>520202</v>
       </c>
       <c r="D233" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E233" t="s">
         <v>191</v>
@@ -6287,16 +6290,16 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>520204</v>
+        <v>520203</v>
       </c>
       <c r="B234" t="s">
         <v>6</v>
       </c>
       <c r="C234">
-        <v>520204</v>
+        <v>520203</v>
       </c>
       <c r="D234" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E234" t="s">
         <v>191</v>
@@ -6307,16 +6310,16 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>520205</v>
+        <v>520204</v>
       </c>
       <c r="B235" t="s">
         <v>6</v>
       </c>
       <c r="C235">
-        <v>520205</v>
+        <v>520204</v>
       </c>
       <c r="D235" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E235" t="s">
         <v>191</v>
@@ -6327,16 +6330,16 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>520206</v>
+        <v>520205</v>
       </c>
       <c r="B236" t="s">
         <v>6</v>
       </c>
       <c r="C236">
-        <v>520206</v>
+        <v>520205</v>
       </c>
       <c r="D236" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E236" t="s">
         <v>191</v>
@@ -6347,16 +6350,16 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>520207</v>
+        <v>520206</v>
       </c>
       <c r="B237" t="s">
         <v>6</v>
       </c>
       <c r="C237">
-        <v>520207</v>
+        <v>520206</v>
       </c>
       <c r="D237" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E237" t="s">
         <v>191</v>
@@ -6367,16 +6370,16 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>520208</v>
+        <v>520207</v>
       </c>
       <c r="B238" t="s">
         <v>6</v>
       </c>
       <c r="C238">
-        <v>520208</v>
+        <v>520207</v>
       </c>
       <c r="D238" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E238" t="s">
         <v>191</v>
@@ -6387,16 +6390,16 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>520209</v>
+        <v>520208</v>
       </c>
       <c r="B239" t="s">
         <v>6</v>
       </c>
       <c r="C239">
-        <v>520209</v>
+        <v>520208</v>
       </c>
       <c r="D239" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E239" t="s">
         <v>191</v>
@@ -6407,16 +6410,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>520210</v>
+        <v>520209</v>
       </c>
       <c r="B240" t="s">
         <v>6</v>
       </c>
       <c r="C240">
-        <v>520210</v>
+        <v>520209</v>
       </c>
       <c r="D240" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E240" t="s">
         <v>191</v>
@@ -6427,16 +6430,16 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>520212</v>
+        <v>520210</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
       </c>
       <c r="C241">
-        <v>520212</v>
+        <v>520210</v>
       </c>
       <c r="D241" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E241" t="s">
         <v>191</v>
@@ -6447,16 +6450,16 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>520213</v>
+        <v>520212</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
       </c>
       <c r="C242">
-        <v>520213</v>
+        <v>520212</v>
       </c>
       <c r="D242" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E242" t="s">
         <v>191</v>
@@ -6467,16 +6470,16 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>520214</v>
+        <v>520213</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
       </c>
       <c r="C243">
-        <v>520214</v>
+        <v>520213</v>
       </c>
       <c r="D243" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E243" t="s">
         <v>191</v>
@@ -6487,16 +6490,16 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>520215</v>
+        <v>520214</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
       </c>
       <c r="C244">
-        <v>520215</v>
+        <v>520214</v>
       </c>
       <c r="D244" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E244" t="s">
         <v>191</v>
@@ -6507,16 +6510,16 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>520216</v>
+        <v>520215</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
       </c>
       <c r="C245">
-        <v>520216</v>
+        <v>520215</v>
       </c>
       <c r="D245" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E245" t="s">
         <v>191</v>
@@ -6527,16 +6530,16 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>520217</v>
+        <v>520216</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
       </c>
       <c r="C246">
-        <v>520217</v>
+        <v>520216</v>
       </c>
       <c r="D246" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E246" t="s">
         <v>191</v>
@@ -6547,16 +6550,16 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>520218</v>
+        <v>520217</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
       </c>
       <c r="C247">
-        <v>520218</v>
+        <v>520217</v>
       </c>
       <c r="D247" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E247" t="s">
         <v>191</v>
@@ -6567,16 +6570,16 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>520219</v>
+        <v>520218</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
       </c>
       <c r="C248">
-        <v>520219</v>
+        <v>520218</v>
       </c>
       <c r="D248" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E248" t="s">
         <v>191</v>
@@ -6587,16 +6590,16 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>520220</v>
+        <v>520219</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
       </c>
       <c r="C249">
-        <v>520220</v>
+        <v>520219</v>
       </c>
       <c r="D249" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E249" t="s">
         <v>191</v>
@@ -6607,19 +6610,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>52022101</v>
+        <v>520220</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
       </c>
       <c r="C250">
-        <v>52022101</v>
+        <v>520220</v>
       </c>
       <c r="D250" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E250" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F250" t="s">
         <v>9</v>
@@ -6627,16 +6630,16 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>52022102</v>
+        <v>52022101</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
       </c>
       <c r="C251">
-        <v>52022102</v>
+        <v>52022101</v>
       </c>
       <c r="D251" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E251" t="s">
         <v>209</v>
@@ -6647,19 +6650,19 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>52022201</v>
+        <v>52022102</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
       </c>
       <c r="C252">
-        <v>52022201</v>
+        <v>52022102</v>
       </c>
       <c r="D252" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E252" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F252" t="s">
         <v>9</v>
@@ -6667,16 +6670,16 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>52022202</v>
+        <v>52022201</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
       </c>
       <c r="C253">
-        <v>52022202</v>
+        <v>52022201</v>
       </c>
       <c r="D253" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E253" t="s">
         <v>191</v>
@@ -6687,19 +6690,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>52022301</v>
+        <v>52022202</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
       </c>
       <c r="C254">
-        <v>52022301</v>
+        <v>52022202</v>
       </c>
       <c r="D254" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E254" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F254" t="s">
         <v>9</v>
@@ -6707,16 +6710,16 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>52022302</v>
+        <v>52022301</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
       </c>
       <c r="C255">
-        <v>52022302</v>
+        <v>52022301</v>
       </c>
       <c r="D255" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E255" t="s">
         <v>209</v>
@@ -6727,16 +6730,16 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>52022303</v>
+        <v>52022302</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
       </c>
       <c r="C256">
-        <v>52022303</v>
+        <v>52022302</v>
       </c>
       <c r="D256" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E256" t="s">
         <v>209</v>
@@ -6747,16 +6750,16 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>52022304</v>
+        <v>52022303</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
       </c>
       <c r="C257">
-        <v>52022304</v>
+        <v>52022303</v>
       </c>
       <c r="D257" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E257" t="s">
         <v>209</v>
@@ -6767,16 +6770,16 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>52022305</v>
+        <v>52022304</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
       </c>
       <c r="C258">
-        <v>52022305</v>
+        <v>52022304</v>
       </c>
       <c r="D258" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E258" t="s">
         <v>209</v>
@@ -6787,16 +6790,16 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>52022306</v>
+        <v>52022305</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
       </c>
       <c r="C259">
-        <v>52022306</v>
+        <v>52022305</v>
       </c>
       <c r="D259" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E259" t="s">
         <v>209</v>
@@ -6807,19 +6810,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>52022401</v>
+        <v>52022306</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
       </c>
       <c r="C260">
-        <v>52022401</v>
+        <v>52022306</v>
       </c>
       <c r="D260" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="E260" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F260" t="s">
         <v>9</v>
@@ -6827,16 +6830,16 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>52022402</v>
+        <v>52022401</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
       </c>
       <c r="C261">
-        <v>52022402</v>
+        <v>52022401</v>
       </c>
       <c r="D261" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E261" t="s">
         <v>191</v>
@@ -6847,16 +6850,16 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>52022403</v>
+        <v>52022402</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
       </c>
       <c r="C262">
-        <v>52022403</v>
+        <v>52022402</v>
       </c>
       <c r="D262" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E262" t="s">
         <v>191</v>
@@ -6867,16 +6870,16 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>520225</v>
+        <v>52022403</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
       </c>
       <c r="C263">
-        <v>520225</v>
+        <v>52022403</v>
       </c>
       <c r="D263" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E263" t="s">
         <v>191</v>
@@ -6887,16 +6890,16 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>520226</v>
+        <v>520225</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
       </c>
       <c r="C264">
-        <v>520226</v>
+        <v>520225</v>
       </c>
       <c r="D264" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E264" t="s">
         <v>191</v>
@@ -6907,16 +6910,16 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>520227</v>
+        <v>520226</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
       </c>
       <c r="C265">
-        <v>520227</v>
+        <v>520226</v>
       </c>
       <c r="D265" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E265" t="s">
         <v>191</v>
@@ -6927,16 +6930,16 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>520228</v>
+        <v>520227</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
       </c>
       <c r="C266">
-        <v>520228</v>
+        <v>520227</v>
       </c>
       <c r="D266" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E266" t="s">
         <v>191</v>
@@ -6947,16 +6950,16 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>520301</v>
+        <v>520228</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
       </c>
       <c r="C267">
-        <v>520301</v>
+        <v>520228</v>
       </c>
       <c r="D267" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E267" t="s">
         <v>191</v>
@@ -6967,16 +6970,16 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>520302</v>
+        <v>520301</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
       </c>
       <c r="C268">
-        <v>520302</v>
+        <v>520301</v>
       </c>
       <c r="D268" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="E268" t="s">
         <v>191</v>
@@ -6987,16 +6990,16 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>520303</v>
+        <v>520302</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
       </c>
       <c r="C269">
-        <v>520303</v>
+        <v>520302</v>
       </c>
       <c r="D269" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="E269" t="s">
         <v>191</v>
@@ -7007,16 +7010,16 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>520304</v>
+        <v>520303</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
       </c>
       <c r="C270">
-        <v>520304</v>
+        <v>520303</v>
       </c>
       <c r="D270" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E270" t="s">
         <v>191</v>
@@ -7027,16 +7030,16 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>520305</v>
+        <v>520304</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
       </c>
       <c r="C271">
-        <v>520305</v>
+        <v>520304</v>
       </c>
       <c r="D271" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E271" t="s">
         <v>191</v>
@@ -7047,16 +7050,16 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>520401</v>
+        <v>520305</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
       </c>
       <c r="C272">
-        <v>520401</v>
+        <v>520305</v>
       </c>
       <c r="D272" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E272" t="s">
         <v>191</v>
@@ -7067,21 +7070,41 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>520402</v>
+        <v>520401</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
       </c>
       <c r="C273">
-        <v>520402</v>
+        <v>520401</v>
       </c>
       <c r="D273" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E273" t="s">
         <v>191</v>
       </c>
       <c r="F273" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>520402</v>
+      </c>
+      <c r="B274" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274">
+        <v>520402</v>
+      </c>
+      <c r="D274" t="s">
+        <v>236</v>
+      </c>
+      <c r="E274" t="s">
+        <v>191</v>
+      </c>
+      <c r="F274" t="s">
         <v>9</v>
       </c>
     </row>

--- a/l10n_ec_chart/data/account.account.template.xlsx
+++ b/l10n_ec_chart/data/account.account.template.xlsx
@@ -1616,7 +1616,7 @@
   <dimension ref="A1:F274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1624,7 @@
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="72" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/l10n_ec_chart/data/account.account.template.xlsx
+++ b/l10n_ec_chart/data/account.account.template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="622">
   <si>
     <t>id</t>
   </si>
@@ -2786,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="D495" sqref="D495"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5988,8 +5988,8 @@
       <c r="B160" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C160" s="13">
-        <v>2010701</v>
+      <c r="C160" s="13" t="s">
+        <v>319</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>316</v>

--- a/l10n_ec_chart/data/account.account.template.xlsx
+++ b/l10n_ec_chart/data/account.account.template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="624">
   <si>
     <t>id</t>
   </si>
@@ -1889,6 +1889,9 @@
   </si>
   <si>
     <t>nocreate</t>
+  </si>
+  <si>
+    <t>520305</t>
   </si>
 </sst>
 </file>
@@ -2789,18 +2792,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C484" sqref="C484"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="15" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="12.85546875" style="15" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="72" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="81.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="8" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
@@ -4675,7 +4678,7 @@
         <v>6</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D82" s="14">
         <v>1010801</v>
@@ -4698,7 +4701,7 @@
         <v>6</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D83" s="14">
         <v>101080101</v>
@@ -6262,7 +6265,7 @@
         <v>18</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D151" s="15">
         <v>2010301</v>
@@ -6285,7 +6288,7 @@
         <v>18</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D152" s="15">
         <v>2010302</v>
@@ -6515,7 +6518,7 @@
         <v>6</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D162" s="14" t="s">
         <v>318</v>
@@ -6722,7 +6725,7 @@
         <v>6</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D171" s="14" t="s">
         <v>338</v>
@@ -7136,7 +7139,7 @@
         <v>6</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D189" s="14" t="s">
         <v>340</v>
@@ -11414,7 +11417,7 @@
         <v>6</v>
       </c>
       <c r="C375" s="10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D375" s="14" t="s">
         <v>505</v>
@@ -12725,7 +12728,7 @@
         <v>6</v>
       </c>
       <c r="C432" s="10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D432" s="14" t="s">
         <v>543</v>
@@ -13845,8 +13848,8 @@
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A481" s="15">
-        <v>520305</v>
+      <c r="A481" s="15" t="s">
+        <v>623</v>
       </c>
       <c r="B481" s="8" t="s">
         <v>6</v>
